--- a/target/classes/companies/pharma/Medtronic/MDT_Medtronic.xlsx
+++ b/target/classes/companies/pharma/Medtronic/MDT_Medtronic.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689F3B74-3D34-4111-9036-7016221639B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
   <si>
     <t>WACC</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>EPS Growth esitmation (%)</t>
+  </si>
+  <si>
+    <t>CE_Celanese</t>
+  </si>
+  <si>
+    <t>sector median (19.16)</t>
+  </si>
+  <si>
+    <t>sector median (14.4)</t>
   </si>
   <si>
     <t>Long Term Debt</t>
@@ -1244,7 +1253,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1354,7 +1363,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,7 +1372,7 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="5" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,11 +1387,11 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1404,18 +1413,18 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,7 +1433,7 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1746,34 +1755,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.20898131404460518</c:v>
+                  <c:v>0.16912442396313365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18024110555718906</c:v>
+                  <c:v>9.1737724198765067E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13202704703617787</c:v>
+                  <c:v>5.3577722946774764E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12270662088579058</c:v>
+                  <c:v>0.16700686583781776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13557724671827667</c:v>
+                  <c:v>0.13729641693811076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10362901879611391</c:v>
+                  <c:v>0.16869322152341021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1515528356841313</c:v>
+                  <c:v>0.13530252501191042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16563483554110608</c:v>
+                  <c:v>0.35101679929266139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11973304113955573</c:v>
+                  <c:v>0.22138924680801217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1590292242630815</c:v>
+                  <c:v>0.1958027499224646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,34 +1920,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.34225437010247139</c:v>
+                  <c:v>0.28064516129032258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27468391649514851</c:v>
+                  <c:v>0.15524845633637166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25408420117467057</c:v>
+                  <c:v>0.1214310891787099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28474317622169043</c:v>
+                  <c:v>0.22805715346075339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27936721642544599</c:v>
+                  <c:v>0.19006514657980456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30995225853837677</c:v>
+                  <c:v>0.23522012578616353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29214255326111854</c:v>
+                  <c:v>0.18897887883118947</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25780790647805485</c:v>
+                  <c:v>0.18037135278514588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23860278248165487</c:v>
+                  <c:v>0.2722267775565187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26699488733194471</c:v>
+                  <c:v>0.19187428925876149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,34 +2085,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.27034358047016277</c:v>
+                  <c:v>5.9139784946236562E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26833284328138785</c:v>
+                  <c:v>4.1752425757130257E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21376042643502294</c:v>
+                  <c:v>6.0274938315121609E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14469531439669822</c:v>
+                  <c:v>0.12005938021896456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18936385055536856</c:v>
+                  <c:v>8.7296416938110744E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1207224651954729</c:v>
+                  <c:v>0.17064989517819706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1921981869947966</c:v>
+                  <c:v>0.17214546609496587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20824542593297132</c:v>
+                  <c:v>0.17312113174182139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16220075040674703</c:v>
+                  <c:v>0.15110694623404006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18866376317616612</c:v>
+                  <c:v>0.13191357386539854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,34 +2643,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.340000152587891</c:v>
+                  <c:v>17.280000686645508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.979999542236328</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.619998931884766</c:v>
+                  <c:v>19.739999771118164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.739999771118164</c:v>
+                  <c:v>25.079999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.180000305175781</c:v>
+                  <c:v>18.399999618530273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.470001220703125</c:v>
+                  <c:v>9.2899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.880001068115234</c:v>
+                  <c:v>16.959999084472656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.880001068115234</c:v>
+                  <c:v>26.139999389648438</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.809999465942383</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.139999389648438</c:v>
+                  <c:v>6.7399997711181641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,34 +2857,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.510000228881836</c:v>
+                  <c:v>13.220000267028809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.440000534057617</c:v>
+                  <c:v>9.8900003433227539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.659999847412109</c:v>
+                  <c:v>11.619999885559082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.340000152587891</c:v>
+                  <c:v>10.770000457763672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.209999084472656</c:v>
+                  <c:v>21.469999313354492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.020000457763672</c:v>
+                  <c:v>9.7899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.399999618530273</c:v>
+                  <c:v>10.529999732971191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.389999389648438</c:v>
+                  <c:v>11.140000343322754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.590000152587891</c:v>
+                  <c:v>13.199999809265137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.559999465942383</c:v>
+                  <c:v>6.0100002288818359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,34 +3312,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.369999885559082</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0199999809265137</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4100000858306885</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4800000190734863</c:v>
+                  <c:v>6.179999828338623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8900001049041748</c:v>
+                  <c:v>6.0900001525878906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2699999809265137</c:v>
+                  <c:v>8.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4100000858306885</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5399999618530273</c:v>
+                  <c:v>16.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6600000858306885</c:v>
+                  <c:v>16.860000610351563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7300000190734863</c:v>
+                  <c:v>17.340000152587891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,34 +3767,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16590</c:v>
+                  <c:v>6510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17005</c:v>
+                  <c:v>6802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20261</c:v>
+                  <c:v>5674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28833</c:v>
+                  <c:v>5389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29710</c:v>
+                  <c:v>6140</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29953</c:v>
+                  <c:v>7155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30557</c:v>
+                  <c:v>6297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28913</c:v>
+                  <c:v>5655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30117</c:v>
+                  <c:v>8537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31686</c:v>
+                  <c:v>9673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4192,34 +4201,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9741</c:v>
+                  <c:v>2887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10315</c:v>
+                  <c:v>2586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33752</c:v>
+                  <c:v>2468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30109</c:v>
+                  <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25921</c:v>
+                  <c:v>3315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23699</c:v>
+                  <c:v>2970</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24486</c:v>
+                  <c:v>3409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22021</c:v>
+                  <c:v>3227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26378</c:v>
+                  <c:v>3176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20372</c:v>
+                  <c:v>13373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,34 +4338,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5678</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4671</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5148</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8210</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8300</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9284</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8927</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7454</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7186</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8460</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4452,34 +4461,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.715568862275449</c:v>
+                  <c:v>1.5801860974274768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2083065724684223</c:v>
+                  <c:v>2.4488636363636362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5563325563325563</c:v>
+                  <c:v>3.5820029027576199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6673568818514006</c:v>
+                  <c:v>2.3515052888527257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1230120481927712</c:v>
+                  <c:v>2.8406169665809768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5526712623869021</c:v>
+                  <c:v>1.7647058823529411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7429147529965272</c:v>
+                  <c:v>2.8647058823529412</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9542527502012343</c:v>
+                  <c:v>3.1637254901960783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.670748677984971</c:v>
+                  <c:v>1.3666092943201378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4080378250591017</c:v>
+                  <c:v>7.2052801724137927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,34 +4957,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4485</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4563</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4331</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4172</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5626</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3616</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5873</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6021</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4885</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5978</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,34 +5094,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1055</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1116</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1337</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2139</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2376</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2494</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2693</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2894</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3120</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3383</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5224,34 +5233,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.23522853957636566</c:v>
+                  <c:v>0.21558441558441557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24457593688362919</c:v>
+                  <c:v>0.50704225352112675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30870468713922883</c:v>
+                  <c:v>0.50877192982456143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5127037392138063</c:v>
+                  <c:v>0.31066460587326122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42232492001421967</c:v>
+                  <c:v>0.44962686567164178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68971238938053092</c:v>
+                  <c:v>0.22932022932022933</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45853907713264092</c:v>
+                  <c:v>0.2767527675276753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48065105464208602</c:v>
+                  <c:v>0.2992849846782431</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63868986693961105</c:v>
+                  <c:v>0.23565891472868217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56590833054533285</c:v>
+                  <c:v>0.23275862068965517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5744,34 +5753,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17048</c:v>
+                  <c:v>5836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16733</c:v>
+                  <c:v>6098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75841</c:v>
+                  <c:v>5799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76044</c:v>
+                  <c:v>5885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74984</c:v>
+                  <c:v>6746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68413</c:v>
+                  <c:v>6439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67727</c:v>
+                  <c:v>6711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68658</c:v>
+                  <c:v>7146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70534</c:v>
+                  <c:v>8168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67921</c:v>
+                  <c:v>19661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5881,34 +5890,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17852</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21210</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30844</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23600</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24873</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22980</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21967</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22031</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22548</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23059</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6310,34 +6319,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3950</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5559</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9173</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7165</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14264</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10084</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8472</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10366</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8509</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12394</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6447,34 +6456,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12279</c:v>
+                  <c:v>4774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12941</c:v>
+                  <c:v>4380</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44282</c:v>
+                  <c:v>4207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40416</c:v>
+                  <c:v>4259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35263</c:v>
+                  <c:v>4680</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30487</c:v>
+                  <c:v>4155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31010</c:v>
+                  <c:v>4824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29451</c:v>
+                  <c:v>5041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32970</c:v>
+                  <c:v>4933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25866</c:v>
+                  <c:v>16099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6876,34 +6885,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>18671</c:v>
+                  <c:v>2699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19443</c:v>
+                  <c:v>3078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53230</c:v>
+                  <c:v>2829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52063</c:v>
+                  <c:v>3021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50330</c:v>
+                  <c:v>3299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50822</c:v>
+                  <c:v>3379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50212</c:v>
+                  <c:v>2898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50872</c:v>
+                  <c:v>3895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51603</c:v>
+                  <c:v>4537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52720</c:v>
+                  <c:v>6105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6993,34 +7002,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16229</c:v>
+                  <c:v>6319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18500</c:v>
+                  <c:v>5718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53455</c:v>
+                  <c:v>5757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47581</c:v>
+                  <c:v>5336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49527</c:v>
+                  <c:v>6239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40571</c:v>
+                  <c:v>5934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39482</c:v>
+                  <c:v>6578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39817</c:v>
+                  <c:v>7014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41479</c:v>
+                  <c:v>7438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38260</c:v>
+                  <c:v>20167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7132,34 +7141,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.86920893364040486</c:v>
+                  <c:v>2.341237495368655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95149925423031423</c:v>
+                  <c:v>1.8576998050682261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0042269396956602</c:v>
+                  <c:v>2.0349946977730649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91391199124138067</c:v>
+                  <c:v>1.7663025488248925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98404530101331211</c:v>
+                  <c:v>1.8911791451955138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79829601353744439</c:v>
+                  <c:v>1.7561408700799053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78630606229586553</c:v>
+                  <c:v>2.2698412698412698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.78268988834722442</c:v>
+                  <c:v>1.8007702182284981</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80380985601612309</c:v>
+                  <c:v>1.6394093013004187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72572078907435511</c:v>
+                  <c:v>3.3033579033579032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7595,34 +7604,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17852</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21210</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30844</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23600</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24873</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22980</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21967</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22031</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22548</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23059</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7712,34 +7721,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3950</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5559</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9173</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7165</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14264</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10084</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8472</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10366</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8509</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12394</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7890,34 +7899,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.5194936708860762</c:v>
+                  <c:v>2.0595469255663432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8154344306529953</c:v>
+                  <c:v>2.0164424514200299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3624768341872886</c:v>
+                  <c:v>1.7980645161290323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2937892533147242</c:v>
+                  <c:v>2.2952646239554317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7437605159842962</c:v>
+                  <c:v>1.790891597177678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2788575961919872</c:v>
+                  <c:v>1.615514333895447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5928942398489139</c:v>
+                  <c:v>1.5763968072976056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1253135249855295</c:v>
+                  <c:v>1.9072478459199189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6499001057703606</c:v>
+                  <c:v>1.5197604790419161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8604970146845248</c:v>
+                  <c:v>1.6251229105211407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8470,34 +8479,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5678</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4671</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5148</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8210</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8300</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9284</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8927</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7454</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7186</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8460</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8663,34 +8672,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3467</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3065</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2675</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3538</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4028</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3104</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4631</c:v>
+                  <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4789</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3606</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5039</c:v>
+                  <c:v>1894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8859,34 +8868,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4485</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4563</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4331</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4172</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5626</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3616</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5873</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6021</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4885</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5978</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9299,34 +9308,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.9340974212034379</c:v>
+                  <c:v>12.208915502328676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0779063331839858</c:v>
+                  <c:v>7.094133697135061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5073815437971598</c:v>
+                  <c:v>3.5406475658047984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5506402793946448</c:v>
+                  <c:v>10.769414861792509</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.033768288652773</c:v>
+                  <c:v>8.8383308869784027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3963213812874073</c:v>
+                  <c:v>12.960377966283689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1631101299975475</c:v>
+                  <c:v>8.99113550021106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.280684537264718</c:v>
+                  <c:v>18.195984966541388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8740035667475987</c:v>
+                  <c:v>15.782881002087683</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5385799076720161</c:v>
+                  <c:v>7.2091961023142508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9463,34 +9472,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>18.568903647367577</c:v>
+                  <c:v>40.792886254168209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.764028184950883</c:v>
+                  <c:v>20.2729044834308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0253616381739619</c:v>
+                  <c:v>10.745846588900672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7956130073180567</c:v>
+                  <c:v>29.791459781529294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0031790184780451</c:v>
+                  <c:v>25.553197938769323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1075912006611306</c:v>
+                  <c:v>35.720627404557561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2228949255158135</c:v>
+                  <c:v>29.399585921325052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.4138229281333548</c:v>
+                  <c:v>50.96277278562259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9879658159409335</c:v>
+                  <c:v>41.657482918227906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5580424886191206</c:v>
+                  <c:v>31.023751023751025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9627,34 +9636,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.619999885559082</c:v>
+                  <c:v>22.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.390000343322754</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7899999618530273</c:v>
+                  <c:v>6.8600001335144043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>18.329999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5799999237060547</c:v>
+                  <c:v>15.489999771118164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6700000762939453</c:v>
+                  <c:v>19.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8000001907348633</c:v>
+                  <c:v>14.409999847412109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4000000953674316</c:v>
+                  <c:v>29.430000305175781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.8299999237060547</c:v>
+                  <c:v>24.680000305175781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.179999828338623</c:v>
+                  <c:v>14.380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10110,34 +10119,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1027.5</c:v>
+                  <c:v>159.33399963378906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1013.5999755859375</c:v>
+                  <c:v>156.16700744628906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1109</c:v>
+                  <c:v>152.28799438476563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1425.9000244140625</c:v>
+                  <c:v>145.66799926757813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1391.4000244140625</c:v>
+                  <c:v>138.31700134277344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1368.199951171875</c:v>
+                  <c:v>135.41700744628906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1357.5</c:v>
+                  <c:v>124.65200042724609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1351.0999755859375</c:v>
+                  <c:v>118.48100280761719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1354</c:v>
+                  <c:v>112.08399963378906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1351.4000244140625</c:v>
+                  <c:v>109.23500061035156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18068,7 +18077,7 @@
                   <m:oMathParaPr>
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMath>
                     <m:r>
                       <a:rPr lang="en-US" sz="2000" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -18162,7 +18171,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -18684,24 +18693,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.453125"/>
+    <col min="4" max="4" customWidth="true" width="7.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.1796875"/>
+    <col min="6" max="6" customWidth="true" width="19.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.453125"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="15" thickBot="1"/>
     <row r="3" spans="2:22">
       <c r="B3" s="139" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="140"/>
@@ -18855,49 +18864,49 @@
       <c r="E12" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="123" t="n">
         <f>AVERAGE(L12:P12)</f>
-        <v>4.6505399045938578</v>
-      </c>
-      <c r="G12" s="119">
+        <v>4.650539904593858</v>
+      </c>
+      <c r="G12" s="119" t="n">
         <f>Financials!D76</f>
-        <v>9.9340974212034379</v>
-      </c>
-      <c r="H12" s="119">
+        <v>9.934097421203438</v>
+      </c>
+      <c r="H12" s="119" t="n">
         <f>Financials!E76</f>
-        <v>8.0779063331839858</v>
-      </c>
-      <c r="I12" s="119">
+        <v>8.077906333183986</v>
+      </c>
+      <c r="I12" s="119" t="n">
         <f>Financials!F76</f>
-        <v>2.5073815437971598</v>
-      </c>
-      <c r="J12" s="119">
+        <v>2.50738154379716</v>
+      </c>
+      <c r="J12" s="119" t="n">
         <f>Financials!G76</f>
         <v>3.5506402793946448</v>
       </c>
-      <c r="K12" s="119">
+      <c r="K12" s="119" t="n">
         <f>Financials!H76</f>
         <v>4.033768288652773</v>
       </c>
-      <c r="L12" s="119">
+      <c r="L12" s="119" t="n">
         <f>Financials!I76</f>
         <v>3.3963213812874073</v>
       </c>
-      <c r="M12" s="119">
+      <c r="M12" s="119" t="n">
         <f>Financials!J76</f>
         <v>5.1631101299975475</v>
       </c>
-      <c r="N12" s="119">
+      <c r="N12" s="119" t="n">
         <f>Financials!K76</f>
         <v>5.280684537264718</v>
       </c>
-      <c r="O12" s="119">
+      <c r="O12" s="119" t="n">
         <f>Financials!L76</f>
         <v>3.8740035667475987</v>
       </c>
-      <c r="P12" s="119">
+      <c r="P12" s="119" t="n">
         <f>Financials!M76</f>
-        <v>5.5385799076720161</v>
+        <v>5.538579907672016</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -18929,49 +18938,49 @@
       <c r="E14" s="46">
         <v>0.08</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F14" s="124" t="n">
         <f>AVERAGE(L14:P14)</f>
-        <v>8.2580634717740704</v>
-      </c>
-      <c r="G14" s="40">
+        <v>8.25806347177407</v>
+      </c>
+      <c r="G14" s="40" t="n">
         <f>Financials!D77</f>
         <v>18.568903647367577</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="40" t="n">
         <f>Financials!E77</f>
         <v>15.764028184950883</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="40" t="n">
         <f>Financials!F77</f>
-        <v>5.0253616381739619</v>
-      </c>
-      <c r="J14" s="40">
+        <v>5.025361638173962</v>
+      </c>
+      <c r="J14" s="40" t="n">
         <f>Financials!G77</f>
-        <v>6.7956130073180567</v>
-      </c>
-      <c r="K14" s="40">
+        <v>6.795613007318057</v>
+      </c>
+      <c r="K14" s="40" t="n">
         <f>Financials!H77</f>
-        <v>8.0031790184780451</v>
-      </c>
-      <c r="L14" s="40">
+        <v>8.003179018478045</v>
+      </c>
+      <c r="L14" s="40" t="n">
         <f>Financials!I77</f>
-        <v>6.1075912006611306</v>
-      </c>
-      <c r="M14" s="40">
+        <v>6.107591200661131</v>
+      </c>
+      <c r="M14" s="40" t="n">
         <f>Financials!J77</f>
-        <v>9.2228949255158135</v>
-      </c>
-      <c r="N14" s="40">
+        <v>9.222894925515813</v>
+      </c>
+      <c r="N14" s="40" t="n">
         <f>Financials!K77</f>
-        <v>9.4138229281333548</v>
-      </c>
-      <c r="O14" s="40">
+        <v>9.413822928133355</v>
+      </c>
+      <c r="O14" s="40" t="n">
         <f>Financials!L77</f>
         <v>6.9879658159409335</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="40" t="n">
         <f>Financials!M77</f>
-        <v>9.5580424886191206</v>
+        <v>9.55804248861912</v>
       </c>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
@@ -19006,51 +19015,51 @@
         <f>V11</f>
         <v>L</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="47" t="n">
         <f>WACC!$C$25</f>
-        <v>7.457253104786471E-2</v>
-      </c>
-      <c r="F16" s="124">
+        <v>0.07457253104786471</v>
+      </c>
+      <c r="F16" s="124" t="n">
         <f>AVERAGE(L16:P16)</f>
-        <v>6.5760000228881834</v>
-      </c>
-      <c r="G16" s="40">
+        <v>6.576000022888183</v>
+      </c>
+      <c r="G16" s="40" t="n">
         <f>Financials!D78</f>
         <v>12.619999885559082</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="40" t="n">
         <f>Financials!E78</f>
         <v>10.390000343322754</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="40" t="n">
         <f>Financials!F78</f>
-        <v>4.7899999618530273</v>
-      </c>
-      <c r="J16" s="40">
+        <v>4.789999961853027</v>
+      </c>
+      <c r="J16" s="40" t="n">
         <f>Financials!G78</f>
-        <v>5</v>
-      </c>
-      <c r="K16" s="40">
+        <v>5.0</v>
+      </c>
+      <c r="K16" s="40" t="n">
         <f>Financials!H78</f>
-        <v>5.5799999237060547</v>
-      </c>
-      <c r="L16" s="40">
+        <v>5.579999923706055</v>
+      </c>
+      <c r="L16" s="40" t="n">
         <f>Financials!I78</f>
-        <v>4.6700000762939453</v>
-      </c>
-      <c r="M16" s="40">
+        <v>4.670000076293945</v>
+      </c>
+      <c r="M16" s="40" t="n">
         <f>Financials!J78</f>
-        <v>7.8000001907348633</v>
-      </c>
-      <c r="N16" s="40">
+        <v>7.800000190734863</v>
+      </c>
+      <c r="N16" s="40" t="n">
         <f>Financials!K78</f>
-        <v>7.4000000953674316</v>
-      </c>
-      <c r="O16" s="40">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O16" s="40" t="n">
         <f>Financials!L78</f>
-        <v>5.8299999237060547</v>
-      </c>
-      <c r="P16" s="40">
+        <v>5.829999923706055</v>
+      </c>
+      <c r="P16" s="40" t="n">
         <f>Financials!M78</f>
         <v>7.179999828338623</v>
       </c>
@@ -19093,47 +19102,47 @@
       <c r="E18" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="125">
+      <c r="F18" s="125" t="n">
         <f>AVERAGE(L18:P18)</f>
         <v>2.3014924962962633</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="42" t="n">
         <f>Financials!D59</f>
-        <v>4.5194936708860762</v>
-      </c>
-      <c r="H18" s="42">
+        <v>4.519493670886076</v>
+      </c>
+      <c r="H18" s="42" t="n">
         <f>Financials!E59</f>
         <v>3.8154344306529953</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="42" t="n">
         <f>Financials!F59</f>
         <v>3.3624768341872886</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="42" t="n">
         <f>Financials!G59</f>
-        <v>3.2937892533147242</v>
-      </c>
-      <c r="K18" s="42">
+        <v>3.293789253314724</v>
+      </c>
+      <c r="K18" s="42" t="n">
         <f>Financials!H59</f>
         <v>1.7437605159842962</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="42" t="n">
         <f>Financials!I59</f>
         <v>2.2788575961919872</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="42" t="n">
         <f>Financials!J59</f>
-        <v>2.5928942398489139</v>
-      </c>
-      <c r="N18" s="42">
+        <v>2.592894239848914</v>
+      </c>
+      <c r="N18" s="42" t="n">
         <f>Financials!K59</f>
         <v>2.1253135249855295</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="42" t="n">
         <f>Financials!L59</f>
         <v>2.6499001057703606</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="42" t="n">
         <f>Financials!M59</f>
         <v>1.8604970146845248</v>
       </c>
@@ -19166,7 +19175,7 @@
     <row r="20" spans="2:20" ht="18.5">
       <c r="B20" s="152"/>
       <c r="C20" s="36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D20" s="54" t="str">
         <f>T11</f>
@@ -19175,49 +19184,49 @@
       <c r="E20" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="125" t="n">
         <f>AVERAGE(L20:P20)</f>
-        <v>0.77936452185420246</v>
-      </c>
-      <c r="G20" s="42">
+        <v>0.7793645218542025</v>
+      </c>
+      <c r="G20" s="42" t="n">
         <f>Financials!D58</f>
-        <v>0.86920893364040486</v>
-      </c>
-      <c r="H20" s="42">
+        <v>0.8692089336404049</v>
+      </c>
+      <c r="H20" s="42" t="n">
         <f>Financials!E58</f>
-        <v>0.95149925423031423</v>
-      </c>
-      <c r="I20" s="42">
+        <v>0.9514992542303142</v>
+      </c>
+      <c r="I20" s="42" t="n">
         <f>Financials!F58</f>
         <v>1.0042269396956602</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="42" t="n">
         <f>Financials!G58</f>
-        <v>0.91391199124138067</v>
-      </c>
-      <c r="K20" s="42">
+        <v>0.9139119912413807</v>
+      </c>
+      <c r="K20" s="42" t="n">
         <f>Financials!H58</f>
-        <v>0.98404530101331211</v>
-      </c>
-      <c r="L20" s="42">
+        <v>0.9840453010133121</v>
+      </c>
+      <c r="L20" s="42" t="n">
         <f>Financials!I58</f>
-        <v>0.79829601353744439</v>
-      </c>
-      <c r="M20" s="42">
+        <v>0.7982960135374444</v>
+      </c>
+      <c r="M20" s="42" t="n">
         <f>Financials!J58</f>
-        <v>0.78630606229586553</v>
-      </c>
-      <c r="N20" s="42">
+        <v>0.7863060622958655</v>
+      </c>
+      <c r="N20" s="42" t="n">
         <f>Financials!K58</f>
-        <v>0.78268988834722442</v>
-      </c>
-      <c r="O20" s="42">
+        <v>0.7826898883472244</v>
+      </c>
+      <c r="O20" s="42" t="n">
         <f>Financials!L58</f>
-        <v>0.80380985601612309</v>
-      </c>
-      <c r="P20" s="42">
+        <v>0.8038098560161231</v>
+      </c>
+      <c r="P20" s="42" t="n">
         <f>Financials!M58</f>
-        <v>0.72572078907435511</v>
+        <v>0.7257207890743551</v>
       </c>
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
@@ -19248,56 +19257,56 @@
     <row r="22" spans="2:20" ht="18.5">
       <c r="B22" s="132"/>
       <c r="C22" s="36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D22" s="54" t="str">
         <f>T11</f>
         <v>J</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="125">
+        <v>161</v>
+      </c>
+      <c r="F22" s="125" t="n">
         <f>AVERAGE(L22:P22)</f>
         <v>2.8657250537257477</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="42" t="n">
         <f>Financials!D60</f>
         <v>1.715568862275449</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="42" t="n">
         <f>Financials!E60</f>
         <v>2.2083065724684223</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="42" t="n">
         <f>Financials!F60</f>
-        <v>6.5563325563325563</v>
-      </c>
-      <c r="J22" s="42">
+        <v>6.556332556332556</v>
+      </c>
+      <c r="J22" s="42" t="n">
         <f>Financials!G60</f>
         <v>3.6673568818514006</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="42" t="n">
         <f>Financials!H60</f>
         <v>3.1230120481927712</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="42" t="n">
         <f>Financials!I60</f>
-        <v>2.5526712623869021</v>
-      </c>
-      <c r="M22" s="42">
+        <v>2.552671262386902</v>
+      </c>
+      <c r="M22" s="42" t="n">
         <f>Financials!J60</f>
-        <v>2.7429147529965272</v>
-      </c>
-      <c r="N22" s="42">
+        <v>2.742914752996527</v>
+      </c>
+      <c r="N22" s="42" t="n">
         <f>Financials!K60</f>
         <v>2.9542527502012343</v>
       </c>
-      <c r="O22" s="42">
+      <c r="O22" s="42" t="n">
         <f>Financials!L60</f>
         <v>3.670748677984971</v>
       </c>
-      <c r="P22" s="42">
+      <c r="P22" s="42" t="n">
         <f>Financials!M60</f>
         <v>2.4080378250591017</v>
       </c>
@@ -19342,43 +19351,43 @@
         <v>69</v>
       </c>
       <c r="F24" s="50"/>
-      <c r="G24" s="40">
+      <c r="G24" s="40" t="n">
         <f>Financials!D12</f>
         <v>1027.5</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="40" t="n">
         <f>Financials!E12</f>
         <v>1013.5999755859375</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="40" t="n">
         <f>Financials!F12</f>
-        <v>1109</v>
-      </c>
-      <c r="J24" s="40">
+        <v>1109.0</v>
+      </c>
+      <c r="J24" s="40" t="n">
         <f>Financials!G12</f>
         <v>1425.9000244140625</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="40" t="n">
         <f>Financials!H12</f>
         <v>1391.4000244140625</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="40" t="n">
         <f>Financials!I12</f>
         <v>1368.199951171875</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="40" t="n">
         <f>Financials!J12</f>
         <v>1357.5</v>
       </c>
-      <c r="N24" s="40">
+      <c r="N24" s="40" t="n">
         <f>Financials!K12</f>
         <v>1351.0999755859375</v>
       </c>
-      <c r="O24" s="40">
+      <c r="O24" s="40" t="n">
         <f>Financials!L12</f>
-        <v>1354</v>
-      </c>
-      <c r="P24" s="40">
+        <v>1354.0</v>
+      </c>
+      <c r="P24" s="40" t="n">
         <f>Financials!M12</f>
         <v>1351.4000244140625</v>
       </c>
@@ -19420,49 +19429,49 @@
         <v>L</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="57">
+        <v>163</v>
+      </c>
+      <c r="F26" s="57" t="n">
         <f>AVERAGEIF(L26:P26,"&lt;100")</f>
-        <v>37.236000442504881</v>
-      </c>
-      <c r="G26" s="44">
+        <v>37.23600044250488</v>
+      </c>
+      <c r="G26" s="44" t="n">
         <f>Financials!D81</f>
-        <v>15.340000152587891</v>
-      </c>
-      <c r="H26" s="44">
+        <v>15.34000015258789</v>
+      </c>
+      <c r="H26" s="44" t="n">
         <f>Financials!E81</f>
         <v>24.979999542236328</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="44" t="n">
         <f>Financials!F81</f>
         <v>46.619998931884766</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="44" t="n">
         <f>Financials!G81</f>
         <v>23.739999771118164</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="44" t="n">
         <f>Financials!H81</f>
-        <v>22.180000305175781</v>
-      </c>
-      <c r="L26" s="44">
+        <v>22.18000030517578</v>
+      </c>
+      <c r="L26" s="44" t="n">
         <f>Financials!I81</f>
         <v>54.470001220703125</v>
       </c>
-      <c r="M26" s="44">
+      <c r="M26" s="44" t="n">
         <f>Financials!J81</f>
         <v>32.880001068115234</v>
       </c>
-      <c r="N26" s="44">
+      <c r="N26" s="44" t="n">
         <f>Financials!K81</f>
         <v>44.880001068115234</v>
       </c>
-      <c r="O26" s="44">
+      <c r="O26" s="44" t="n">
         <f>Financials!L81</f>
         <v>29.809999465942383</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="44" t="n">
         <f>Financials!M81</f>
         <v>24.139999389648438</v>
       </c>
@@ -19502,49 +19511,49 @@
         <v>L</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="57">
+        <v>164</v>
+      </c>
+      <c r="F28" s="57" t="n">
         <f>AVERAGEIF(L28:P28, "&lt;100")</f>
-        <v>20.791999816894531</v>
-      </c>
-      <c r="G28" s="44">
+        <v>20.79199981689453</v>
+      </c>
+      <c r="G28" s="44" t="n">
         <f>Financials!D82</f>
         <v>12.510000228881836</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="44" t="n">
         <f>Financials!E82</f>
         <v>17.440000534057617</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="44" t="n">
         <f>Financials!F82</f>
-        <v>17.659999847412109</v>
-      </c>
-      <c r="J28" s="44">
+        <v>17.65999984741211</v>
+      </c>
+      <c r="J28" s="44" t="n">
         <f>Financials!G82</f>
-        <v>16.340000152587891</v>
-      </c>
-      <c r="K28" s="44">
+        <v>16.34000015258789</v>
+      </c>
+      <c r="K28" s="44" t="n">
         <f>Financials!H82</f>
         <v>20.209999084472656</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="44" t="n">
         <f>Financials!I82</f>
         <v>21.020000457763672</v>
       </c>
-      <c r="M28" s="44">
+      <c r="M28" s="44" t="n">
         <f>Financials!J82</f>
         <v>20.399999618530273</v>
       </c>
-      <c r="N28" s="44">
+      <c r="N28" s="44" t="n">
         <f>Financials!K82</f>
         <v>26.389999389648438</v>
       </c>
-      <c r="O28" s="44">
+      <c r="O28" s="44" t="n">
         <f>Financials!L82</f>
-        <v>19.590000152587891</v>
-      </c>
-      <c r="P28" s="44">
+        <v>19.59000015258789</v>
+      </c>
+      <c r="P28" s="44" t="n">
         <f>Financials!M82</f>
         <v>16.559999465942383</v>
       </c>
@@ -19582,7 +19591,7 @@
       <c r="E30" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="127">
+      <c r="F30" s="127" t="n">
         <f>Financials!$C$83</f>
         <v>2.2200000286102295</v>
       </c>
@@ -19618,7 +19627,7 @@
       <c r="E32" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="52" t="n">
         <f>Financials!D63</f>
         <v>0.10577176856171855</v>
       </c>
@@ -19635,9 +19644,9 @@
       <c r="E33" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="52" t="n">
         <f>Financials!D64</f>
-        <v>2.9151582846499879E-2</v>
+        <v>0.02915158284649988</v>
       </c>
     </row>
     <row r="34" spans="2:17">
@@ -19659,9 +19668,9 @@
       <c r="E35" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="52" t="n">
         <f>Financials!D69</f>
-        <v>-1.8416959323199533E-2</v>
+        <v>-0.018416959323199533</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="18.5">
@@ -19676,9 +19685,9 @@
       <c r="E36" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="52" t="n">
         <f>Financials!D70</f>
-        <v>8.3016304790204831E-2</v>
+        <v>0.08301630479020483</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -19701,7 +19710,7 @@
       <c r="E38" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="52" t="n">
         <f>Financials!D65</f>
         <v>0.10175372913869052</v>
       </c>
@@ -19718,9 +19727,9 @@
       <c r="E39" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="52" t="n">
         <f>Financials!D66</f>
-        <v>3.8099666855591297E-2</v>
+        <v>0.038099666855591297</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -19742,9 +19751,9 @@
       <c r="E41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="52" t="n">
         <f>Financials!D67</f>
-        <v>1.1312600235921622E-2</v>
+        <v>0.011312600235921622</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="18.5">
@@ -19759,9 +19768,9 @@
       <c r="E42" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="52" t="n">
         <f>Financials!D68</f>
-        <v>6.684690881331834E-2</v>
+        <v>0.06684690881331834</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -19774,16 +19783,16 @@
       <c r="C44" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="56" t="str">
-        <f>V11</f>
-        <v>L</v>
+      <c r="D44" s="55" t="str">
+        <f>U11</f>
+        <v>K</v>
       </c>
       <c r="E44" s="101">
         <v>0.75</v>
       </c>
-      <c r="F44" s="103">
+      <c r="F44" s="103" t="n">
         <f>Financials!$D$73</f>
-        <v>0.56670014372804034</v>
+        <v>0.5667001437280403</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="18.5">
@@ -19798,9 +19807,9 @@
       <c r="E45" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="103">
+      <c r="F45" s="103" t="n">
         <f>Financials!D71</f>
-        <v>6.2872351089566125E-2</v>
+        <v>0.06287235108956613</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="18.5">
@@ -19815,9 +19824,9 @@
       <c r="E46" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="103">
+      <c r="F46" s="103" t="n">
         <f>Financials!D72</f>
-        <v>7.329604533780773E-2</v>
+        <v>0.07329604533780773</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="18.5">
@@ -19832,7 +19841,7 @@
       <c r="E47" s="101">
         <v>0.12</v>
       </c>
-      <c r="F47" s="102">
+      <c r="F47" s="102" t="n">
         <f>F45+F46</f>
         <v>0.13616839642737386</v>
       </c>
@@ -19856,13 +19865,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.1796875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19875,14 +19884,14 @@
   <dimension ref="B2:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="61.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="61.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.6328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="20" thickBot="1">
@@ -19910,7 +19919,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="P4" t="s">
+      <c r="P4" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -19918,7 +19927,7 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="58" t="n">
         <v>107.76000213623047</v>
       </c>
     </row>
@@ -19926,48 +19935,48 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59">
-        <v>12394000</v>
+      <c r="C6" s="59" t="n">
+        <v>1.2394E7</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="59">
-        <v>25865000</v>
+      <c r="C7" s="59" t="n">
+        <v>2.5865E7</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="59">
-        <v>592000</v>
+      <c r="C8" s="59" t="n">
+        <v>592000.0</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="59">
-        <v>5415000</v>
+      <c r="C9" s="59" t="n">
+        <v>5415000.0</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="59">
-        <v>1328000</v>
+      <c r="C10" s="59" t="n">
+        <v>1328000.0</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="60">
-        <v>0.72000002861022949</v>
+      <c r="C11" s="60" t="n">
+        <v>0.7200000286102295</v>
       </c>
       <c r="G11" s="33"/>
     </row>
@@ -19992,7 +20001,7 @@
       <c r="C15" s="14">
         <v>0.12</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -20000,38 +20009,38 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="11" t="n">
         <f>SUM(C6:C7)</f>
-        <v>38259000</v>
+        <v>3.8259E7</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="12" t="n">
         <f>C8/C17</f>
-        <v>1.547348336339162E-2</v>
+        <v>0.01547348336339162</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="12" t="n">
         <f>C14+C11*(C15-C14)</f>
-        <v>9.5640002489089923E-2</v>
+        <v>0.09564000248908992</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="12" t="n">
         <f>C8/C17</f>
-        <v>1.547348336339162E-2</v>
-      </c>
-      <c r="K20" t="s">
+        <v>0.01547348336339162</v>
+      </c>
+      <c r="K20" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -20039,11 +20048,11 @@
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="11" t="n">
         <f>C17+C5*1000000</f>
-        <v>146019002.13622999</v>
-      </c>
-      <c r="K21" t="s">
+        <v>1.4601900213623E8</v>
+      </c>
+      <c r="K21" t="s" s="0">
         <v>11</v>
       </c>
     </row>
@@ -20051,11 +20060,11 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="12" t="n">
         <f>C5*1000000/C21</f>
-        <v>0.73798615632021747</v>
-      </c>
-      <c r="K22" t="s">
+        <v>0.7379861563202175</v>
+      </c>
+      <c r="K22" t="s" s="0">
         <v>12</v>
       </c>
     </row>
@@ -20063,7 +20072,7 @@
       <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="12" t="n">
         <f>C17/C21</f>
         <v>0.26201384367978253</v>
       </c>
@@ -20079,9 +20088,9 @@
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="17" t="n">
         <f>C23*C20*(1-C18)+C22*C19</f>
-        <v>7.457253104786471E-2</v>
+        <v>0.07457253104786471</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -20114,20 +20123,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="9" max="12" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.81640625"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="20" thickBot="1">
@@ -20140,9 +20149,9 @@
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="20" t="n">
         <f>WACC!C25</f>
-        <v>7.457253104786471E-2</v>
+        <v>0.07457253104786471</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -20157,31 +20166,33 @@
       <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="65">
-        <v>1.4999999664723873E-2</v>
+      <c r="C6" s="65" t="n">
+        <v>0.014999999664723873</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13">
-        <v>0.1</v>
+      <c r="C7" s="13" t="n">
+        <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
+        <v>0.14791122896660278</v>
       </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="13">
-        <v>1</v>
+      <c r="C8" s="13" t="n">
+        <f>AVERAGEIF(C29:L29,"&lt;2")</f>
+        <v>1.3208785553510831</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="66" t="n">
         <v>14.420000076293945</v>
       </c>
     </row>
@@ -20189,16 +20200,16 @@
       <c r="B10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="67">
-        <v>4.9999998882412902E-3</v>
+      <c r="C10" s="67" t="n">
+        <v>0.004999999888241291</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="59">
-        <v>1328709248</v>
+      <c r="C11" s="59" t="n">
+        <v>1.328709248E9</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -20248,45 +20259,45 @@
       <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="21" t="n">
         <f>Financials!D3</f>
-        <v>16590</v>
-      </c>
-      <c r="D16" s="21">
+        <v>16590.0</v>
+      </c>
+      <c r="D16" s="21" t="n">
         <f>Financials!E3</f>
-        <v>17005</v>
-      </c>
-      <c r="E16" s="21">
+        <v>17005.0</v>
+      </c>
+      <c r="E16" s="21" t="n">
         <f>Financials!F3</f>
-        <v>20261</v>
-      </c>
-      <c r="F16" s="21">
+        <v>20261.0</v>
+      </c>
+      <c r="F16" s="21" t="n">
         <f>Financials!G3</f>
-        <v>28833</v>
-      </c>
-      <c r="G16" s="21">
+        <v>28833.0</v>
+      </c>
+      <c r="G16" s="21" t="n">
         <f>Financials!H3</f>
-        <v>29710</v>
-      </c>
-      <c r="H16" s="21">
+        <v>29710.0</v>
+      </c>
+      <c r="H16" s="21" t="n">
         <f>Financials!I3</f>
-        <v>29953</v>
-      </c>
-      <c r="I16" s="21">
+        <v>29953.0</v>
+      </c>
+      <c r="I16" s="21" t="n">
         <f>Financials!J3</f>
-        <v>30557</v>
-      </c>
-      <c r="J16" s="21">
+        <v>30557.0</v>
+      </c>
+      <c r="J16" s="21" t="n">
         <f>Financials!K3</f>
-        <v>28913</v>
-      </c>
-      <c r="K16" s="21">
+        <v>28913.0</v>
+      </c>
+      <c r="K16" s="21" t="n">
         <f>Financials!L3</f>
-        <v>30117</v>
-      </c>
-      <c r="L16" s="21">
+        <v>30117.0</v>
+      </c>
+      <c r="L16" s="21" t="n">
         <f>Financials!M3</f>
-        <v>31686</v>
+        <v>31686.0</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -20294,41 +20305,41 @@
         <v>27</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="20">
+      <c r="D17" s="20" t="n">
         <f t="shared" ref="D17:L17" si="0">(D16-C16)/C16</f>
-        <v>2.5015069318866788E-2</v>
-      </c>
-      <c r="E17" s="20">
+        <v>0.025015069318866788</v>
+      </c>
+      <c r="E17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>0.19147309614819172</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>0.42307882138097824</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>3.0416536607359622E-2</v>
-      </c>
-      <c r="H17" s="20">
+        <v>0.030416536607359622</v>
+      </c>
+      <c r="H17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>8.1790642881184785E-3</v>
-      </c>
-      <c r="I17" s="20">
+        <v>0.008179064288118479</v>
+      </c>
+      <c r="I17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>2.0164925049243814E-2</v>
-      </c>
-      <c r="J17" s="20">
+        <v>0.020164925049243814</v>
+      </c>
+      <c r="J17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-5.3801093039238142E-2</v>
-      </c>
-      <c r="K17" s="20">
+        <v>-0.05380109303923814</v>
+      </c>
+      <c r="K17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>4.164216788295922E-2</v>
-      </c>
-      <c r="L17" s="20">
+        <v>0.04164216788295922</v>
+      </c>
+      <c r="L17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>5.2096822392668593E-2</v>
+        <v>0.05209682239266859</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -20348,45 +20359,45 @@
       <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="21" t="n">
         <f>Financials!D6</f>
-        <v>3467</v>
-      </c>
-      <c r="D19" s="21">
+        <v>3467.0</v>
+      </c>
+      <c r="D19" s="21" t="n">
         <f>Financials!E6</f>
-        <v>3065</v>
-      </c>
-      <c r="E19" s="21">
+        <v>3065.0</v>
+      </c>
+      <c r="E19" s="21" t="n">
         <f>Financials!F6</f>
-        <v>2675</v>
-      </c>
-      <c r="F19" s="21">
+        <v>2675.0</v>
+      </c>
+      <c r="F19" s="21" t="n">
         <f>Financials!G6</f>
-        <v>3538</v>
-      </c>
-      <c r="G19" s="21">
+        <v>3538.0</v>
+      </c>
+      <c r="G19" s="21" t="n">
         <f>Financials!H6</f>
-        <v>4028</v>
-      </c>
-      <c r="H19" s="21">
+        <v>4028.0</v>
+      </c>
+      <c r="H19" s="21" t="n">
         <f>Financials!I6</f>
-        <v>3104</v>
-      </c>
-      <c r="I19" s="21">
+        <v>3104.0</v>
+      </c>
+      <c r="I19" s="21" t="n">
         <f>Financials!J6</f>
-        <v>4631</v>
-      </c>
-      <c r="J19" s="21">
+        <v>4631.0</v>
+      </c>
+      <c r="J19" s="21" t="n">
         <f>Financials!K6</f>
-        <v>4789</v>
-      </c>
-      <c r="K19" s="21">
+        <v>4789.0</v>
+      </c>
+      <c r="K19" s="21" t="n">
         <f>Financials!L6</f>
-        <v>3606</v>
-      </c>
-      <c r="L19" s="21">
+        <v>3606.0</v>
+      </c>
+      <c r="L19" s="21" t="n">
         <f>Financials!M6</f>
-        <v>5039</v>
+        <v>5039.0</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -20394,39 +20405,39 @@
         <v>27</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="20">
+      <c r="D20" s="20" t="n">
         <f>(D19-C19)/C19</f>
         <v>-0.115950389385636</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="20" t="n">
         <f t="shared" ref="E20:L20" si="1">(E19-D19)/D19</f>
-        <v>-0.12724306688417619</v>
-      </c>
-      <c r="F20" s="20">
+        <v>-0.1272430668841762</v>
+      </c>
+      <c r="F20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.32261682242990652</v>
-      </c>
-      <c r="G20" s="20">
+        <v>0.3226168224299065</v>
+      </c>
+      <c r="G20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.13849632560768796</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>-0.22939424031777558</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.49194587628865977</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>3.4117901101274023E-2</v>
-      </c>
-      <c r="K20" s="20">
+        <v>0.03411790110127402</v>
+      </c>
+      <c r="K20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>-0.24702443098768009</v>
-      </c>
-      <c r="L20" s="20">
+        <v>-0.2470244309876801</v>
+      </c>
+      <c r="L20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.39739323349972266</v>
       </c>
@@ -20435,45 +20446,45 @@
       <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="25" t="n">
         <f>Financials!D20</f>
-        <v>4485</v>
-      </c>
-      <c r="D22" s="25">
+        <v>4485.0</v>
+      </c>
+      <c r="D22" s="25" t="n">
         <f>Financials!E20</f>
-        <v>4563</v>
-      </c>
-      <c r="E22" s="25">
+        <v>4563.0</v>
+      </c>
+      <c r="E22" s="25" t="n">
         <f>Financials!F20</f>
-        <v>4331</v>
-      </c>
-      <c r="F22" s="25">
+        <v>4331.0</v>
+      </c>
+      <c r="F22" s="25" t="n">
         <f>Financials!G20</f>
-        <v>4172</v>
-      </c>
-      <c r="G22" s="25">
+        <v>4172.0</v>
+      </c>
+      <c r="G22" s="25" t="n">
         <f>Financials!H20</f>
-        <v>5626</v>
-      </c>
-      <c r="H22" s="25">
+        <v>5626.0</v>
+      </c>
+      <c r="H22" s="25" t="n">
         <f>Financials!I20</f>
-        <v>3616</v>
-      </c>
-      <c r="I22" s="25">
+        <v>3616.0</v>
+      </c>
+      <c r="I22" s="25" t="n">
         <f>Financials!J20</f>
-        <v>5873</v>
-      </c>
-      <c r="J22" s="25">
+        <v>5873.0</v>
+      </c>
+      <c r="J22" s="25" t="n">
         <f>Financials!K20</f>
-        <v>6021</v>
-      </c>
-      <c r="K22" s="25">
+        <v>6021.0</v>
+      </c>
+      <c r="K22" s="25" t="n">
         <f>Financials!L20</f>
-        <v>4885</v>
-      </c>
-      <c r="L22" s="25">
+        <v>4885.0</v>
+      </c>
+      <c r="L22" s="25" t="n">
         <f>Financials!M20</f>
-        <v>5978</v>
+        <v>5978.0</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -20481,39 +20492,39 @@
         <v>27</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="26">
+      <c r="D23" s="26" t="n">
         <f>(D22-C22)/C22</f>
-        <v>1.7391304347826087E-2</v>
-      </c>
-      <c r="E23" s="26">
+        <v>0.017391304347826087</v>
+      </c>
+      <c r="E23" s="26" t="n">
         <f t="shared" ref="E23:L23" si="2">(E22-D22)/D22</f>
-        <v>-5.0843743151435458E-2</v>
-      </c>
-      <c r="F23" s="26">
+        <v>-0.05084374315143546</v>
+      </c>
+      <c r="F23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-3.6712075733087046E-2</v>
-      </c>
-      <c r="G23" s="26">
+        <v>-0.036712075733087046</v>
+      </c>
+      <c r="G23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>0.34851390220517736</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>-0.35726981869889796</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>0.62417035398230092</v>
-      </c>
-      <c r="J23" s="26">
+        <v>0.6241703539823009</v>
+      </c>
+      <c r="J23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>2.5200068108292183E-2</v>
-      </c>
-      <c r="K23" s="26">
+        <v>0.025200068108292183</v>
+      </c>
+      <c r="K23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>-0.18867297791064608</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>0.22374616171954964</v>
       </c>
@@ -20535,45 +20546,45 @@
       <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="62" t="n">
         <f>Financials!D9</f>
-        <v>5678</v>
-      </c>
-      <c r="D25" s="62">
+        <v>5678.0</v>
+      </c>
+      <c r="D25" s="62" t="n">
         <f>Financials!E9</f>
-        <v>4671</v>
-      </c>
-      <c r="E25" s="62">
+        <v>4671.0</v>
+      </c>
+      <c r="E25" s="62" t="n">
         <f>Financials!F9</f>
-        <v>5148</v>
-      </c>
-      <c r="F25" s="62">
+        <v>5148.0</v>
+      </c>
+      <c r="F25" s="62" t="n">
         <f>Financials!G9</f>
-        <v>8210</v>
-      </c>
-      <c r="G25" s="62">
+        <v>8210.0</v>
+      </c>
+      <c r="G25" s="62" t="n">
         <f>Financials!H9</f>
-        <v>8300</v>
-      </c>
-      <c r="H25" s="62">
+        <v>8300.0</v>
+      </c>
+      <c r="H25" s="62" t="n">
         <f>Financials!I9</f>
-        <v>9284</v>
-      </c>
-      <c r="I25" s="62">
+        <v>9284.0</v>
+      </c>
+      <c r="I25" s="62" t="n">
         <f>Financials!J9</f>
-        <v>8927</v>
-      </c>
-      <c r="J25" s="62">
+        <v>8927.0</v>
+      </c>
+      <c r="J25" s="62" t="n">
         <f>Financials!K9</f>
-        <v>7454</v>
-      </c>
-      <c r="K25" s="62">
+        <v>7454.0</v>
+      </c>
+      <c r="K25" s="62" t="n">
         <f>Financials!L9</f>
-        <v>7186</v>
-      </c>
-      <c r="L25" s="62">
+        <v>7186.0</v>
+      </c>
+      <c r="L25" s="62" t="n">
         <f>Financials!M9</f>
-        <v>8460</v>
+        <v>8460.0</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -20581,39 +20592,39 @@
         <v>27</v>
       </c>
       <c r="C26" s="63"/>
-      <c r="D26" s="63">
+      <c r="D26" s="63" t="n">
         <f>Financials!E10</f>
         <v>-0.17735117999295527</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="63" t="n">
         <f>Financials!F10</f>
         <v>0.10211946050096339</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="63" t="n">
         <f>Financials!G10</f>
-        <v>0.59479409479409484</v>
-      </c>
-      <c r="G26" s="63">
+        <v>0.5947940947940948</v>
+      </c>
+      <c r="G26" s="63" t="n">
         <f>Financials!H10</f>
-        <v>1.0962241169305725E-2</v>
-      </c>
-      <c r="H26" s="63">
+        <v>0.010962241169305725</v>
+      </c>
+      <c r="H26" s="63" t="n">
         <f>Financials!I10</f>
         <v>0.11855421686746988</v>
       </c>
-      <c r="I26" s="63">
+      <c r="I26" s="63" t="n">
         <f>Financials!J10</f>
-        <v>-3.8453252908229214E-2</v>
-      </c>
-      <c r="J26" s="63">
+        <v>-0.038453252908229214</v>
+      </c>
+      <c r="J26" s="63" t="n">
         <f>Financials!K10</f>
         <v>-0.16500504088719614</v>
       </c>
-      <c r="K26" s="63">
+      <c r="K26" s="63" t="n">
         <f>Financials!L10</f>
-        <v>-3.5953850281727928E-2</v>
-      </c>
-      <c r="L26" s="63">
+        <v>-0.03595385028172793</v>
+      </c>
+      <c r="L26" s="63" t="n">
         <f>Financials!M10</f>
         <v>0.17728917339270805</v>
       </c>
@@ -20622,43 +20633,43 @@
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="24" t="n">
         <f t="shared" ref="C28:L28" si="3">C19/C16</f>
         <v>0.20898131404460518</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.18024110555718906</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.13202704703617787</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.12270662088579058</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.13557724671827667</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.10362901879611391</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.1515528356841313</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.16563483554110608</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.11973304113955573</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.1590292242630815</v>
       </c>
@@ -20667,37 +20678,43 @@
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="24" t="n">
         <f t="shared" ref="C29:L29" si="4">C22/C19</f>
         <v>1.2936256129218344</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24">
+      <c r="D29" s="24" t="n">
+        <f t="shared" si="4"/>
+        <v>1.4887438825448613</v>
+      </c>
+      <c r="E29" s="24" t="n">
+        <f t="shared" si="4"/>
+        <v>1.6190654205607478</v>
+      </c>
+      <c r="F29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.1791972866026004</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.3967229394240317</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.1649484536082475</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.2681926149859641</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.2572562121528503</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.3546866333887964</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.186346497320897</v>
       </c>
@@ -20746,87 +20763,87 @@
       <c r="B36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="21" t="n">
         <f>L16*(C37+1)</f>
-        <v>30931.873182624571</v>
-      </c>
-      <c r="D36" s="21">
+        <v>30931.87318262457</v>
+      </c>
+      <c r="D36" s="21" t="n">
         <f>C36*(D37+1)</f>
         <v>32283.595991479076</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="21" t="n">
         <f>D36*(E37+1)</f>
-        <v>33723.444332097279</v>
-      </c>
-      <c r="F36" s="21">
+        <v>33723.44433209728</v>
+      </c>
+      <c r="F36" s="21" t="n">
         <f t="shared" ref="F36:L36" si="5">E36*(F37+1)</f>
-        <v>34229.295985771962</v>
-      </c>
-      <c r="G36" s="21">
+        <v>34229.29598577196</v>
+      </c>
+      <c r="G36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>34742.735414082184</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>35263.876433644888</v>
-      </c>
-      <c r="I36" s="21">
+        <v>35263.87643364489</v>
+      </c>
+      <c r="I36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>35792.834568326303</v>
-      </c>
-      <c r="J36" s="21">
+        <v>35792.8345683263</v>
+      </c>
+      <c r="J36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>36329.727074850576</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>36874.672968792729</v>
-      </c>
-      <c r="L36" s="21">
+        <v>36874.67296879273</v>
+      </c>
+      <c r="L36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>37427.793050961249</v>
+        <v>37427.79305096125</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="68">
-        <v>-2.3800000548362732E-2</v>
-      </c>
-      <c r="D37" s="68">
-        <v>4.3699998408555984E-2</v>
-      </c>
-      <c r="E37" s="68">
-        <v>4.4599998742341995E-2</v>
-      </c>
-      <c r="F37" s="27">
+      <c r="C37" s="68" t="n">
+        <v>-0.023800000548362732</v>
+      </c>
+      <c r="D37" s="68" t="n">
+        <v>0.043699998408555984</v>
+      </c>
+      <c r="E37" s="68" t="n">
+        <v>0.044599998742341995</v>
+      </c>
+      <c r="F37" s="27" t="n">
         <f>C6</f>
-        <v>1.4999999664723873E-2</v>
-      </c>
-      <c r="G37" s="27">
+        <v>0.014999999664723873</v>
+      </c>
+      <c r="G37" s="27" t="n">
         <f>C6</f>
-        <v>1.4999999664723873E-2</v>
-      </c>
-      <c r="H37" s="27">
+        <v>0.014999999664723873</v>
+      </c>
+      <c r="H37" s="27" t="n">
         <f>C6</f>
-        <v>1.4999999664723873E-2</v>
-      </c>
-      <c r="I37" s="27">
+        <v>0.014999999664723873</v>
+      </c>
+      <c r="I37" s="27" t="n">
         <f>C6</f>
-        <v>1.4999999664723873E-2</v>
-      </c>
-      <c r="J37" s="27">
+        <v>0.014999999664723873</v>
+      </c>
+      <c r="J37" s="27" t="n">
         <f>C6</f>
-        <v>1.4999999664723873E-2</v>
-      </c>
-      <c r="K37" s="27">
+        <v>0.014999999664723873</v>
+      </c>
+      <c r="K37" s="27" t="n">
         <f>C6</f>
-        <v>1.4999999664723873E-2</v>
-      </c>
-      <c r="L37" s="27">
+        <v>0.014999999664723873</v>
+      </c>
+      <c r="L37" s="27" t="n">
         <f>C6</f>
-        <v>1.4999999664723873E-2</v>
+        <v>0.014999999664723873</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -20846,88 +20863,88 @@
       <c r="B39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="21" t="n">
         <f>C36*C7</f>
-        <v>3093.1873182624572</v>
-      </c>
-      <c r="D39" s="21">
+        <v>4575.171376681114</v>
+      </c>
+      <c r="D39" s="21" t="n">
         <f>D36*C7</f>
-        <v>3228.3595991479078</v>
-      </c>
-      <c r="E39" s="21">
+        <v>4775.106358560972</v>
+      </c>
+      <c r="E39" s="21" t="n">
         <f>E36*C7</f>
-        <v>3372.3444332097279</v>
-      </c>
-      <c r="F39" s="21">
+        <v>4988.076096147334</v>
+      </c>
+      <c r="F39" s="21" t="n">
         <f>F36*C7</f>
-        <v>3422.9295985771964</v>
-      </c>
-      <c r="G39" s="21">
+        <v>5062.897235917148</v>
+      </c>
+      <c r="G39" s="21" t="n">
         <f>G36*C7</f>
-        <v>3474.2735414082185</v>
-      </c>
-      <c r="H39" s="21">
+        <v>5138.840692758419</v>
+      </c>
+      <c r="H39" s="21" t="n">
         <f>H36*C7</f>
-        <v>3526.3876433644891</v>
-      </c>
-      <c r="I39" s="21">
+        <v>5215.923301426847</v>
+      </c>
+      <c r="I39" s="21" t="n">
         <f>I36*C7</f>
-        <v>3579.2834568326307</v>
-      </c>
-      <c r="J39" s="21">
+        <v>5294.162149199454</v>
+      </c>
+      <c r="J39" s="21" t="n">
         <f>J36*C7</f>
-        <v>3632.972707485058</v>
-      </c>
-      <c r="K39" s="21">
+        <v>5373.574579662423</v>
+      </c>
+      <c r="K39" s="21" t="n">
         <f>K36*C7</f>
-        <v>3687.4672968792729</v>
-      </c>
-      <c r="L39" s="21">
+        <v>5454.178196555704</v>
+      </c>
+      <c r="L39" s="21" t="n">
         <f>L36*C7</f>
-        <v>3742.779305096125</v>
+        <v>5535.990867675355</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="18"/>
-      <c r="C40" s="20">
+      <c r="C40" s="20" t="n">
         <f>(C39-L19)/L19</f>
-        <v>-0.3861505619641879</v>
-      </c>
-      <c r="D40" s="20">
+        <v>-0.09204775219664338</v>
+      </c>
+      <c r="D40" s="20" t="n">
         <f>(D39-C39)/C39</f>
-        <v>4.3699998408561057E-2</v>
-      </c>
-      <c r="E40" s="20">
+        <v>0.0436999984085607</v>
+      </c>
+      <c r="E40" s="20" t="n">
         <f t="shared" ref="E40:L40" si="6">(E39-D39)/D39</f>
-        <v>4.4599998742340642E-2</v>
-      </c>
-      <c r="F40" s="20">
+        <v>0.04459999874234063</v>
+      </c>
+      <c r="F40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>1.4999999664720678E-2</v>
-      </c>
-      <c r="G40" s="20">
+        <v>0.014999999664721103</v>
+      </c>
+      <c r="G40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>1.4999999664721167E-2</v>
-      </c>
-      <c r="H40" s="20">
+        <v>0.01499999966472052</v>
+      </c>
+      <c r="H40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>1.4999999664720501E-2</v>
-      </c>
-      <c r="I40" s="20">
+        <v>0.014999999664720313</v>
+      </c>
+      <c r="I40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>1.4999999664720419E-2</v>
-      </c>
-      <c r="J40" s="20">
+        <v>0.014999999664719849</v>
+      </c>
+      <c r="J40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>1.4999999664719996E-2</v>
-      </c>
-      <c r="K40" s="20">
+        <v>0.014999999664720837</v>
+      </c>
+      <c r="K40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>1.4999999664720591E-2</v>
-      </c>
-      <c r="L40" s="20">
+        <v>0.014999999664719326</v>
+      </c>
+      <c r="L40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>1.4999999664719188E-2</v>
+        <v>0.0149999996647186</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -20947,180 +20964,180 @@
       <c r="B42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="21" t="n">
         <f>C39*C8</f>
-        <v>3093.1873182624572</v>
-      </c>
-      <c r="D42" s="21">
+        <v>6043.2457585141565</v>
+      </c>
+      <c r="D42" s="21" t="n">
         <f>D39*C8</f>
-        <v>3228.3595991479078</v>
-      </c>
-      <c r="E42" s="21">
+        <v>6307.33558854377</v>
+      </c>
+      <c r="E42" s="21" t="n">
         <f>E39*C8</f>
-        <v>3372.3444332097279</v>
-      </c>
-      <c r="F42" s="21">
+        <v>6588.64274786034</v>
+      </c>
+      <c r="F42" s="21" t="n">
         <f>F39*C8</f>
-        <v>3422.9295985771964</v>
-      </c>
-      <c r="G42" s="21">
+        <v>6687.472386869221</v>
+      </c>
+      <c r="G42" s="21" t="n">
         <f>G39*C8</f>
-        <v>3474.2735414082185</v>
-      </c>
-      <c r="H42" s="21">
+        <v>6787.784470430085</v>
+      </c>
+      <c r="H42" s="21" t="n">
         <f>H39*C8</f>
-        <v>3526.3876433644891</v>
-      </c>
-      <c r="I42" s="21">
+        <v>6889.601235210734</v>
+      </c>
+      <c r="I42" s="21" t="n">
         <f>I39*C8</f>
-        <v>3579.2834568326307</v>
-      </c>
-      <c r="J42" s="21">
+        <v>6992.945251428939</v>
+      </c>
+      <c r="J42" s="21" t="n">
         <f>J39*C8</f>
-        <v>3632.972707485058</v>
-      </c>
-      <c r="K42" s="21">
+        <v>7097.839427855784</v>
+      </c>
+      <c r="K42" s="21" t="n">
         <f>K39*C8</f>
-        <v>3687.4672968792729</v>
-      </c>
-      <c r="L42" s="21">
+        <v>7204.307016893852</v>
+      </c>
+      <c r="L42" s="21" t="n">
         <f>L39*C8</f>
-        <v>3742.779305096125</v>
+        <v>7312.371619731788</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="20" t="n">
         <f>(C42-L22)/L22</f>
-        <v>-0.48257154261250296</v>
-      </c>
-      <c r="D43" s="20">
+        <v>0.010914312230538056</v>
+      </c>
+      <c r="D43" s="20" t="n">
         <f>(D42-C42)/C42</f>
-        <v>4.3699998408561057E-2</v>
-      </c>
-      <c r="E43" s="20">
+        <v>0.04369999840856136</v>
+      </c>
+      <c r="E43" s="20" t="n">
         <f t="shared" ref="E43:L43" si="7">(E42-D42)/D42</f>
-        <v>4.4599998742340642E-2</v>
-      </c>
-      <c r="F43" s="20">
+        <v>0.04459999874234025</v>
+      </c>
+      <c r="F43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>1.4999999664720678E-2</v>
-      </c>
-      <c r="G43" s="20">
+        <v>0.014999999664722404</v>
+      </c>
+      <c r="G43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>1.4999999664721167E-2</v>
-      </c>
-      <c r="H43" s="20">
+        <v>0.014999999664720216</v>
+      </c>
+      <c r="H43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>1.4999999664720501E-2</v>
-      </c>
-      <c r="I43" s="20">
+        <v>0.014999999664720888</v>
+      </c>
+      <c r="I43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>1.4999999664720419E-2</v>
-      </c>
-      <c r="J43" s="20">
+        <v>0.014999999664718483</v>
+      </c>
+      <c r="J43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>1.4999999664719996E-2</v>
-      </c>
-      <c r="K43" s="20">
+        <v>0.014999999664720941</v>
+      </c>
+      <c r="K43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>1.4999999664720591E-2</v>
-      </c>
-      <c r="L43" s="20">
+        <v>0.014999999664719281</v>
+      </c>
+      <c r="L43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>1.4999999664719188E-2</v>
+        <v>0.014999999664718378</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="21" t="n">
         <f>L25*(1+C46)</f>
-        <v>8502.2999990545213</v>
-      </c>
-      <c r="D45" s="21">
+        <v>8502.29999905451</v>
+      </c>
+      <c r="D45" s="21" t="n">
         <f>C45*(1+D46)</f>
-        <v>8544.811498099587</v>
-      </c>
-      <c r="E45" s="21">
+        <v>8544.811498099565</v>
+      </c>
+      <c r="E45" s="21" t="n">
         <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>8587.5355546351275</v>
-      </c>
-      <c r="F45" s="21">
+        <v>8587.5355546351</v>
+      </c>
+      <c r="F45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>8630.4732314485718</v>
-      </c>
-      <c r="G45" s="21">
+        <v>8630.473231448532</v>
+      </c>
+      <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>8673.6255966412846</v>
-      </c>
-      <c r="H45" s="21">
+        <v>8673.625596641232</v>
+      </c>
+      <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>8716.9937236551377</v>
-      </c>
-      <c r="I45" s="21">
+        <v>8716.993723655072</v>
+      </c>
+      <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>8760.5786912992135</v>
-      </c>
-      <c r="J45" s="21">
+        <v>8760.578691299133</v>
+      </c>
+      <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>8804.3815837766379</v>
-      </c>
-      <c r="K45" s="21">
+        <v>8804.381583776543</v>
+      </c>
+      <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>8848.4034907115547</v>
-      </c>
-      <c r="L45" s="21">
+        <v>8848.403490711446</v>
+      </c>
+      <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>8892.6455071762266</v>
+        <v>8892.64550717611</v>
       </c>
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="20" t="n">
         <f>C10</f>
-        <v>4.9999998882412902E-3</v>
-      </c>
-      <c r="D46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="D46" s="20" t="n">
         <f>C10</f>
-        <v>4.9999998882412902E-3</v>
-      </c>
-      <c r="E46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="E46" s="20" t="n">
         <f>C10</f>
-        <v>4.9999998882412902E-3</v>
-      </c>
-      <c r="F46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="F46" s="20" t="n">
         <f>C10</f>
-        <v>4.9999998882412902E-3</v>
-      </c>
-      <c r="G46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="G46" s="20" t="n">
         <f>C10</f>
-        <v>4.9999998882412902E-3</v>
-      </c>
-      <c r="H46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="H46" s="20" t="n">
         <f>C10</f>
-        <v>4.9999998882412902E-3</v>
-      </c>
-      <c r="I46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="I46" s="20" t="n">
         <f>C10</f>
-        <v>4.9999998882412902E-3</v>
-      </c>
-      <c r="J46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="J46" s="20" t="n">
         <f>C10</f>
-        <v>4.9999998882412902E-3</v>
-      </c>
-      <c r="K46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="K46" s="20" t="n">
         <f>C10</f>
-        <v>4.9999998882412902E-3</v>
-      </c>
-      <c r="L46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="L46" s="20" t="n">
         <f>C10</f>
-        <v>4.9999998882412902E-3</v>
+        <v>0.004999999888241291</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20" thickBot="1">
@@ -21170,43 +21187,43 @@
       <c r="B51" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="61" t="n">
         <f>POWER((1+C4),1)</f>
         <v>1.0745725310478647</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="61" t="n">
         <f>POWER((1+C4),2)</f>
         <v>1.154706124482614</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="61" t="n">
         <f>POWER((1+C4),3)</f>
         <v>1.2408154828017532</v>
       </c>
-      <c r="F51" s="61">
+      <c r="F51" s="61" t="n">
         <f>POWER((1+C4),4)</f>
         <v>1.3333462339176583</v>
       </c>
-      <c r="G51" s="61">
+      <c r="G51" s="61" t="n">
         <f>POWER((1+C4),5)</f>
         <v>1.4327772373440362</v>
       </c>
-      <c r="H51" s="61">
+      <c r="H51" s="61" t="n">
         <f>POWER((1+C4),6)</f>
         <v>1.539623062360548</v>
       </c>
-      <c r="I51" s="61">
+      <c r="I51" s="61" t="n">
         <f>POWER((1+C4),7)</f>
         <v>1.6544366509804385</v>
       </c>
-      <c r="J51" s="61">
+      <c r="J51" s="61" t="n">
         <f>POWER((1+C4),8)</f>
         <v>1.7778121795024024</v>
       </c>
-      <c r="K51" s="61">
+      <c r="K51" s="61" t="n">
         <f>POWER((1+C4),9)</f>
         <v>1.9103881334556172</v>
       </c>
-      <c r="L51" s="61">
+      <c r="L51" s="61" t="n">
         <f>POWER((1+C4),10)</f>
         <v>2.0528506118512087</v>
       </c>
@@ -21228,45 +21245,45 @@
       <c r="B53" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="21" t="n">
         <f t="shared" ref="C53:L53" si="9">C42/C51</f>
-        <v>2878.5281857578748</v>
-      </c>
-      <c r="D53" s="21">
+        <v>5623.860264342642</v>
+      </c>
+      <c r="D53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>2795.8279000160583</v>
-      </c>
-      <c r="E53" s="21">
+        <v>5462.286424929029</v>
+      </c>
+      <c r="E53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>2717.8452235258997</v>
-      </c>
-      <c r="F53" s="21">
+        <v>5309.9295094088</v>
+      </c>
+      <c r="F53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>2567.172360415263</v>
-      </c>
-      <c r="G53" s="21">
+        <v>5015.5557624518715</v>
+      </c>
+      <c r="G53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>2424.852552688888</v>
-      </c>
-      <c r="H53" s="21">
+        <v>4737.501611215365</v>
+      </c>
+      <c r="H53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>2290.4227207131053</v>
-      </c>
-      <c r="I53" s="21">
+        <v>4474.8623241896585</v>
+      </c>
+      <c r="I53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>2163.4454572264858</v>
-      </c>
-      <c r="J53" s="21">
+        <v>4226.783326689984</v>
+      </c>
+      <c r="J53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>2043.5076041057962</v>
-      </c>
-      <c r="K53" s="21">
+        <v>3992.4574202447116</v>
+      </c>
+      <c r="K53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>1930.2189080337173</v>
-      </c>
-      <c r="L53" s="21">
+        <v>3771.1221561360335</v>
+      </c>
+      <c r="L53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>1823.2107506941197</v>
+        <v>3562.057354547428</v>
       </c>
     </row>
     <row r="54" spans="2:12">
@@ -21286,7 +21303,7 @@
       <c r="B55" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="74">
+      <c r="C55" s="74" t="n">
         <f>POWER((1+C4),11)</f>
         <v>2.2059368778401107</v>
       </c>
@@ -21345,18 +21362,18 @@
       <c r="B59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="25" t="n">
         <f>L53*(1+C5)/(C4-C5)</f>
-        <v>37698.115871006528</v>
+        <v>73651.85337996553</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="15" thickBot="1">
       <c r="B60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="23" t="n">
         <f>C59/C55</f>
-        <v>17089.390113427777</v>
+        <v>33388.01491549474</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15" thickTop="1"/>
@@ -21364,9 +21381,9 @@
       <c r="B62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="71">
+      <c r="C62" s="71" t="n">
         <f>(SUM(C53:L53)+C59)</f>
-        <v>61333.147534183736</v>
+        <v>119828.26953412105</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="15" thickTop="1">
@@ -21376,9 +21393,9 @@
       <c r="B64" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="70">
+      <c r="C64" s="70" t="n">
         <f>C62/(C11/1000000)</f>
-        <v>46.159946298638047</v>
+        <v>90.18396591616182</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="30"/>
@@ -21415,18 +21432,18 @@
       <c r="B69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="25">
+      <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>128231.9488919362</v>
+        <v>128231.94889193411</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
       <c r="B70" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>58130.379966942382</v>
+        <v>58130.37996694141</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21437,9 +21454,9 @@
       <c r="B72" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="72">
+      <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>81765.41163011959</v>
+        <v>104306.79612109694</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21447,9 +21464,9 @@
       <c r="B74" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="70">
+      <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>61.537474622980568</v>
+        <v>78.50234825873433</v>
       </c>
     </row>
   </sheetData>
@@ -21473,7 +21490,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="29.90625"/>
   </cols>
   <sheetData>
     <row r="13" spans="2:3" ht="20" thickBot="1">
@@ -21487,7 +21504,7 @@
       <c r="B15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="78" t="n">
         <v>3.0399999618530273</v>
       </c>
     </row>
@@ -21495,7 +21512,7 @@
       <c r="B16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>7</v>
       </c>
     </row>
@@ -21503,15 +21520,15 @@
       <c r="B17" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="78">
-        <v>1</v>
+      <c r="C17" s="78" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>4.42</v>
       </c>
       <c r="D18" s="77" t="s">
@@ -21525,7 +21542,7 @@
       <c r="B20" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="79" t="n">
         <f>(C15*(C16+C17)*4.4)/C18</f>
         <v>24.209954447336198</v>
       </c>
@@ -21545,23 +21562,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.54296875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="6.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="117" t="n">
         <v>2.6700000762939453</v>
       </c>
     </row>
@@ -21638,7 +21655,7 @@
       <c r="O6" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="106">
+      <c r="P6" s="106" t="n">
         <f>C2</f>
         <v>2.6700000762939453</v>
       </c>
@@ -21647,103 +21664,103 @@
       <c r="B7" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="90" t="n">
         <f>P6*(1+P7)</f>
-        <v>2.7434250779941771</v>
-      </c>
-      <c r="D7" s="90">
+        <v>2.743425077994177</v>
+      </c>
+      <c r="D7" s="90" t="n">
         <f>C7*(1+P7)</f>
         <v>2.8188692672302222</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="90" t="n">
         <f>D7*(1+P7)</f>
         <v>2.8963881716590114</v>
       </c>
-      <c r="F7" s="90">
+      <c r="F7" s="90" t="n">
         <f>E7*(1+P7)</f>
-        <v>2.9760388459480418</v>
-      </c>
-      <c r="G7" s="90">
+        <v>2.976038845948042</v>
+      </c>
+      <c r="G7" s="90" t="n">
         <f>F7*(1+P7)</f>
         <v>3.0578799137681516</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="90" t="n">
         <f>G7*(1+P7)</f>
         <v>3.1419716109411193</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="90" t="n">
         <f>H7*(1+P7)</f>
         <v>3.2283758297738157</v>
       </c>
-      <c r="J7" s="90">
+      <c r="J7" s="90" t="n">
         <f>I7*(1+P7)</f>
         <v>3.3171561646115397</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="90" t="n">
         <f>J7*(1+P7)</f>
-        <v>3.4083779586440679</v>
-      </c>
-      <c r="L7" s="90">
+        <v>3.408377958644068</v>
+      </c>
+      <c r="L7" s="90" t="n">
         <f>K7*(1+P7)</f>
         <v>3.5021083519988996</v>
       </c>
-      <c r="M7" s="159">
+      <c r="M7" s="159" t="n">
         <f>L7*(1+P7)/(P8-P7)</f>
-        <v>76.444079799044431</v>
+        <v>76.44407979904443</v>
       </c>
       <c r="N7" s="160"/>
       <c r="O7" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="104">
-        <v>2.7499999850988388E-2</v>
+      <c r="P7" s="104" t="n">
+        <v>0.027499999850988388</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1">
       <c r="B8" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="90" t="n">
         <f>C7/(1+P8)</f>
         <v>2.5530385327446936</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="90" t="n">
         <f>D7/(1+P8)^2</f>
         <v>2.4412005855544177</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="90" t="n">
         <f>E7/(1+P8)^3</f>
-        <v>2.3342617913817389</v>
-      </c>
-      <c r="F8" s="90">
+        <v>2.334261791381739</v>
+      </c>
+      <c r="F8" s="90" t="n">
         <f>F7/(1+P8)^4</f>
-        <v>2.2320075388099259</v>
-      </c>
-      <c r="G8" s="90">
+        <v>2.232007538809926</v>
+      </c>
+      <c r="G8" s="90" t="n">
         <f>G7/(1+P8)^5</f>
-        <v>2.1342326176514268</v>
-      </c>
-      <c r="H8" s="90">
+        <v>2.134232617651427</v>
+      </c>
+      <c r="H8" s="90" t="n">
         <f>H7/(1+P8)^6</f>
-        <v>2.0407408071192759</v>
-      </c>
-      <c r="I8" s="90">
+        <v>2.040740807119276</v>
+      </c>
+      <c r="I8" s="90" t="n">
         <f>I7/(1+P8)^7</f>
         <v>1.9513444820390335</v>
       </c>
-      <c r="J8" s="90">
+      <c r="J8" s="90" t="n">
         <f>J7/(1+P8)^8</f>
         <v>1.8658642363109437</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="90" t="n">
         <f>K7/(1+P8)^9</f>
-        <v>1.7841285228666071</v>
-      </c>
-      <c r="L8" s="90">
+        <v>1.784128522866607</v>
+      </c>
+      <c r="L8" s="90" t="n">
         <f>L7/(1+P8)^10</f>
         <v>1.705973309397699</v>
       </c>
-      <c r="M8" s="159">
+      <c r="M8" s="159" t="n">
         <f>M7/POWER((1+P8),10)</f>
         <v>37.238013987831785</v>
       </c>
@@ -21751,9 +21768,9 @@
       <c r="O8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="105">
+      <c r="P8" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>7.457253104786471E-2</v>
+        <v>0.07457253104786471</v>
       </c>
     </row>
     <row r="9" spans="2:16">
@@ -21764,9 +21781,9 @@
       <c r="B10" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="95" t="n">
         <f>SUM(C8:N8)*(1-P9)</f>
-        <v>58.280806411707502</v>
+        <v>58.2808064117075</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -21859,7 +21876,7 @@
       <c r="O15" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="106">
+      <c r="P15" s="106" t="n">
         <f>C2</f>
         <v>2.6700000762939453</v>
       </c>
@@ -21868,113 +21885,113 @@
       <c r="B16" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="90" t="n">
         <f>P15*(1+P16)</f>
-        <v>2.7567750755906228</v>
-      </c>
-      <c r="D16" s="90">
+        <v>2.756775075590623</v>
+      </c>
+      <c r="D16" s="90" t="n">
         <f>C16*(1+P16)</f>
         <v>2.846370262260991</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="90" t="n">
         <f>D16*(1+P16)</f>
         <v>2.9388772923913424</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="90" t="n">
         <f>E16*(1+P16)</f>
-        <v>3.0343908008906522</v>
-      </c>
-      <c r="G16" s="90">
+        <v>3.034390800890652</v>
+      </c>
+      <c r="G16" s="90" t="n">
         <f>F16*(1+P16)</f>
         <v>3.1330084983023294</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="90" t="n">
         <f>G16*(1+P16)</f>
         <v>3.2348312707623275</v>
       </c>
-      <c r="I16" s="90">
+      <c r="I16" s="90" t="n">
         <f>H16*(1+P16)</f>
         <v>3.3399632832058956</v>
       </c>
-      <c r="J16" s="90">
+      <c r="J16" s="90" t="n">
         <f>I16*(1+P16)</f>
         <v>3.448512085928555</v>
       </c>
-      <c r="K16" s="90">
+      <c r="K16" s="90" t="n">
         <f>J16*(1+P16)</f>
         <v>3.560588724610291</v>
       </c>
-      <c r="L16" s="90">
+      <c r="L16" s="90" t="n">
         <f>K16*(1+P16)</f>
         <v>3.6763078539155822</v>
       </c>
-      <c r="M16" s="159">
+      <c r="M16" s="159" t="n">
         <f>L16*(1+P16)/(P17-P16)</f>
-        <v>90.220094981123367</v>
+        <v>90.22009498112337</v>
       </c>
       <c r="N16" s="160"/>
       <c r="O16" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="104">
-        <v>3.2499998807907104E-2</v>
+      <c r="P16" s="104" t="n">
+        <v>0.032499998807907104</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
       <c r="B17" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="90" t="n">
         <f>C16/(1+P17)</f>
         <v>2.5654620753262463</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="90" t="n">
         <f>D16/(1+P17)^2</f>
-        <v>2.4650170306634211</v>
-      </c>
-      <c r="E17" s="90">
+        <v>2.465017030663421</v>
+      </c>
+      <c r="E17" s="90" t="n">
         <f>E16/(1+P17)^3</f>
         <v>2.3685046915721766</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="90" t="n">
         <f>F16/(1+P17)^4</f>
         <v>2.275771081585428</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="90" t="n">
         <f>G16/(1+P17)^5</f>
-        <v>2.1866682528472001</v>
-      </c>
-      <c r="H17" s="90">
+        <v>2.1866682528472</v>
+      </c>
+      <c r="H17" s="90" t="n">
         <f>H16/(1+P17)^6</f>
-        <v>2.1010540500755339</v>
-      </c>
-      <c r="I17" s="90">
+        <v>2.101054050075534</v>
+      </c>
+      <c r="I17" s="90" t="n">
         <f>I16/(1+P17)^7</f>
-        <v>2.0187918837669581</v>
-      </c>
-      <c r="J17" s="90">
+        <v>2.018791883766958</v>
+      </c>
+      <c r="J17" s="90" t="n">
         <f>J16/(1+P17)^8</f>
         <v>1.9397505122806449</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K17" s="90" t="n">
         <f>K16/(1+P17)^9</f>
         <v>1.8638038324545558</v>
       </c>
-      <c r="L17" s="90">
+      <c r="L17" s="90" t="n">
         <f>L16/(1+P17)^10</f>
         <v>1.7908306784195935</v>
       </c>
-      <c r="M17" s="159">
+      <c r="M17" s="159" t="n">
         <f>M16/POWER((1+P17),10)</f>
-        <v>43.948689914540417</v>
+        <v>43.94868991454042</v>
       </c>
       <c r="N17" s="160"/>
       <c r="O17" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="105">
+      <c r="P17" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>7.457253104786471E-2</v>
+        <v>0.07457253104786471</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -21985,9 +22002,9 @@
       <c r="B19" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="95">
+      <c r="C19" s="95" t="n">
         <f>SUM(C17:N17)*(1-P18)</f>
-        <v>65.524344003532207</v>
+        <v>65.5243440035322</v>
       </c>
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
@@ -22074,7 +22091,7 @@
       <c r="O24" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="106">
+      <c r="P24" s="106" t="n">
         <f>C2</f>
         <v>2.6700000762939453</v>
       </c>
@@ -22083,47 +22100,47 @@
       <c r="B25" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="90" t="n">
         <f>P24*(1+P25)</f>
         <v>2.7701250831335935</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="90" t="n">
         <f>C25*(1+P25)</f>
         <v>2.8740047778789184</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="90" t="n">
         <f>D25*(1+P25)</f>
         <v>2.9817799613319913</v>
       </c>
-      <c r="F25" s="90">
+      <c r="F25" s="90" t="n">
         <f>E25*(1+P25)</f>
         <v>3.0935967143251495</v>
       </c>
-      <c r="G25" s="90">
+      <c r="G25" s="90" t="n">
         <f>F25*(1+P25)</f>
         <v>3.2096065957221733</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="90" t="n">
         <f>G25*(1+P25)</f>
         <v>3.3299668478444504</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="90" t="n">
         <f>H25*(1+P25)</f>
-        <v>3.4548406096006672</v>
-      </c>
-      <c r="J25" s="90">
+        <v>3.454840609600667</v>
+      </c>
+      <c r="J25" s="90" t="n">
         <f>I25*(1+P25)</f>
-        <v>3.5843971376088222</v>
-      </c>
-      <c r="K25" s="90">
+        <v>3.584397137608822</v>
+      </c>
+      <c r="K25" s="90" t="n">
         <f>J25*(1+P25)</f>
         <v>3.7188120356103327</v>
       </c>
-      <c r="L25" s="90">
+      <c r="L25" s="90" t="n">
         <f>K25*(1+P25)</f>
         <v>3.8582674924871934</v>
       </c>
-      <c r="M25" s="159">
+      <c r="M25" s="159" t="n">
         <f>L25*(1+P25)/(P26-P25)</f>
         <v>107.9762448626351</v>
       </c>
@@ -22131,55 +22148,55 @@
       <c r="O25" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P25" s="104">
-        <v>3.7500001490116119E-2</v>
+      <c r="P25" s="104" t="n">
+        <v>0.03750000149011612</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1">
       <c r="B26" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="90">
+      <c r="C26" s="90" t="n">
         <f>C25/(1+P26)</f>
         <v>2.5778856271640658</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="90" t="n">
         <f>D25/(1+P26)^2</f>
-        <v>2.4889491074334411</v>
-      </c>
-      <c r="E26" s="90">
+        <v>2.488949107433441</v>
+      </c>
+      <c r="E26" s="90" t="n">
         <f>E25/(1+P26)^3</f>
         <v>2.4030808791966054</v>
       </c>
-      <c r="F26" s="90">
+      <c r="F26" s="90" t="n">
         <f>F25/(1+P26)^4</f>
         <v>2.3201750870330904</v>
       </c>
-      <c r="G26" s="90">
+      <c r="G26" s="90" t="n">
         <f>G25/(1+P26)^5</f>
         <v>2.2401295275125004</v>
       </c>
-      <c r="H26" s="90">
+      <c r="H26" s="90" t="n">
         <f>H25/(1+P26)^6</f>
         <v>2.162845523201598</v>
       </c>
-      <c r="I26" s="90">
+      <c r="I26" s="90" t="n">
         <f>I25/(1+P26)^7</f>
-        <v>2.0882278010181219</v>
-      </c>
-      <c r="J26" s="90">
+        <v>2.088227801018122</v>
+      </c>
+      <c r="J26" s="90" t="n">
         <f>J25/(1+P26)^8</f>
         <v>2.0161843747814086</v>
       </c>
-      <c r="K26" s="90">
+      <c r="K26" s="90" t="n">
         <f>K25/(1+P26)^9</f>
         <v>1.9466264318149469</v>
       </c>
-      <c r="L26" s="90">
+      <c r="L26" s="90" t="n">
         <f>L25/(1+P26)^10</f>
-        <v>1.8794682234611799</v>
-      </c>
-      <c r="M26" s="159">
+        <v>1.87946822346118</v>
+      </c>
+      <c r="M26" s="159" t="n">
         <f>M25/POWER((1+P26),10)</f>
         <v>52.598198933367435</v>
       </c>
@@ -22187,9 +22204,9 @@
       <c r="O26" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="105">
+      <c r="P26" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>7.457253104786471E-2</v>
+        <v>0.07457253104786471</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -22200,7 +22217,7 @@
       <c r="B28" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="95">
+      <c r="C28" s="95" t="n">
         <f>SUM(C26:N26)*(1-P27)</f>
         <v>74.7217715159844</v>
       </c>
@@ -22245,12 +22262,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="110" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="11.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6328125" style="110" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="110" width="10.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="110" width="13.26953125"/>
+    <col min="5" max="11" bestFit="true" customWidth="true" style="110" width="11.26953125"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="110" width="11.6328125"/>
+    <col min="19" max="19" customWidth="true" width="11.7265625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.5" thickBot="1">
@@ -22293,38 +22310,38 @@
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="120">
-        <v>16184</v>
-      </c>
-      <c r="D3" s="110">
-        <v>16590</v>
-      </c>
-      <c r="E3" s="110">
-        <v>17005</v>
-      </c>
-      <c r="F3" s="110">
-        <v>20261</v>
-      </c>
-      <c r="G3" s="110">
-        <v>28833</v>
-      </c>
-      <c r="H3" s="110">
-        <v>29710</v>
-      </c>
-      <c r="I3" s="110">
-        <v>29953</v>
-      </c>
-      <c r="J3" s="110">
-        <v>30557</v>
-      </c>
-      <c r="K3" s="110">
-        <v>28913</v>
-      </c>
-      <c r="L3" s="110">
-        <v>30117</v>
-      </c>
-      <c r="M3" s="110">
-        <v>31686</v>
+      <c r="C3" s="120" t="n">
+        <v>16184.0</v>
+      </c>
+      <c r="D3" s="110" t="n">
+        <v>16590.0</v>
+      </c>
+      <c r="E3" s="110" t="n">
+        <v>17005.0</v>
+      </c>
+      <c r="F3" s="110" t="n">
+        <v>20261.0</v>
+      </c>
+      <c r="G3" s="110" t="n">
+        <v>28833.0</v>
+      </c>
+      <c r="H3" s="110" t="n">
+        <v>29710.0</v>
+      </c>
+      <c r="I3" s="110" t="n">
+        <v>29953.0</v>
+      </c>
+      <c r="J3" s="110" t="n">
+        <v>30557.0</v>
+      </c>
+      <c r="K3" s="110" t="n">
+        <v>28913.0</v>
+      </c>
+      <c r="L3" s="110" t="n">
+        <v>30117.0</v>
+      </c>
+      <c r="M3" s="110" t="n">
+        <v>31686.0</v>
       </c>
       <c r="Q3" s="107"/>
     </row>
@@ -22333,45 +22350,45 @@
         <v>27</v>
       </c>
       <c r="C4" s="113"/>
-      <c r="D4" s="121">
+      <c r="D4" s="121" t="n">
         <f t="shared" ref="D4:M4" si="0">(D3-C3)/C3</f>
-        <v>2.5086505190311418E-2</v>
-      </c>
-      <c r="E4" s="121">
+        <v>0.025086505190311418</v>
+      </c>
+      <c r="E4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>2.5015069318866788E-2</v>
-      </c>
-      <c r="F4" s="121">
+        <v>0.025015069318866788</v>
+      </c>
+      <c r="F4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.19147309614819172</v>
       </c>
-      <c r="G4" s="121">
+      <c r="G4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.42307882138097824</v>
       </c>
-      <c r="H4" s="121">
+      <c r="H4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>3.0416536607359622E-2</v>
-      </c>
-      <c r="I4" s="121">
+        <v>0.030416536607359622</v>
+      </c>
+      <c r="I4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>8.1790642881184785E-3</v>
-      </c>
-      <c r="J4" s="121">
+        <v>0.008179064288118479</v>
+      </c>
+      <c r="J4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>2.0164925049243814E-2</v>
-      </c>
-      <c r="K4" s="121">
+        <v>0.020164925049243814</v>
+      </c>
+      <c r="K4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-5.3801093039238142E-2</v>
-      </c>
-      <c r="L4" s="121">
+        <v>-0.05380109303923814</v>
+      </c>
+      <c r="L4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>4.164216788295922E-2</v>
-      </c>
-      <c r="M4" s="121">
+        <v>0.04164216788295922</v>
+      </c>
+      <c r="M4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>5.2096822392668593E-2</v>
+        <v>0.05209682239266859</v>
       </c>
       <c r="Q4" s="107"/>
     </row>
@@ -22394,38 +22411,38 @@
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="110">
-        <v>3617</v>
-      </c>
-      <c r="D6" s="110">
-        <v>3467</v>
-      </c>
-      <c r="E6" s="110">
-        <v>3065</v>
-      </c>
-      <c r="F6" s="110">
-        <v>2675</v>
-      </c>
-      <c r="G6" s="110">
-        <v>3538</v>
-      </c>
-      <c r="H6" s="110">
-        <v>4028</v>
-      </c>
-      <c r="I6" s="110">
-        <v>3104</v>
-      </c>
-      <c r="J6" s="110">
-        <v>4631</v>
-      </c>
-      <c r="K6" s="110">
-        <v>4789</v>
-      </c>
-      <c r="L6" s="110">
-        <v>3606</v>
-      </c>
-      <c r="M6" s="110">
-        <v>5039</v>
+      <c r="C6" s="110" t="n">
+        <v>3617.0</v>
+      </c>
+      <c r="D6" s="110" t="n">
+        <v>3467.0</v>
+      </c>
+      <c r="E6" s="110" t="n">
+        <v>3065.0</v>
+      </c>
+      <c r="F6" s="110" t="n">
+        <v>2675.0</v>
+      </c>
+      <c r="G6" s="110" t="n">
+        <v>3538.0</v>
+      </c>
+      <c r="H6" s="110" t="n">
+        <v>4028.0</v>
+      </c>
+      <c r="I6" s="110" t="n">
+        <v>3104.0</v>
+      </c>
+      <c r="J6" s="110" t="n">
+        <v>4631.0</v>
+      </c>
+      <c r="K6" s="110" t="n">
+        <v>4789.0</v>
+      </c>
+      <c r="L6" s="110" t="n">
+        <v>3606.0</v>
+      </c>
+      <c r="M6" s="110" t="n">
+        <v>5039.0</v>
       </c>
       <c r="Q6" s="107"/>
     </row>
@@ -22434,43 +22451,43 @@
         <v>27</v>
       </c>
       <c r="C7" s="113"/>
-      <c r="D7" s="121">
+      <c r="D7" s="121" t="n">
         <f t="shared" ref="D7" si="1">(D6-C6)/C6</f>
-        <v>-4.1470832181365776E-2</v>
-      </c>
-      <c r="E7" s="121">
+        <v>-0.041470832181365776</v>
+      </c>
+      <c r="E7" s="121" t="n">
         <f t="shared" ref="E7" si="2">(E6-D6)/D6</f>
         <v>-0.115950389385636</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="121" t="n">
         <f t="shared" ref="F7" si="3">(F6-E6)/E6</f>
-        <v>-0.12724306688417619</v>
-      </c>
-      <c r="G7" s="121">
+        <v>-0.1272430668841762</v>
+      </c>
+      <c r="G7" s="121" t="n">
         <f t="shared" ref="G7" si="4">(G6-F6)/F6</f>
-        <v>0.32261682242990652</v>
-      </c>
-      <c r="H7" s="121">
+        <v>0.3226168224299065</v>
+      </c>
+      <c r="H7" s="121" t="n">
         <f t="shared" ref="H7" si="5">(H6-G6)/G6</f>
         <v>0.13849632560768796</v>
       </c>
-      <c r="I7" s="121">
+      <c r="I7" s="121" t="n">
         <f t="shared" ref="I7" si="6">(I6-H6)/H6</f>
         <v>-0.22939424031777558</v>
       </c>
-      <c r="J7" s="121">
+      <c r="J7" s="121" t="n">
         <f t="shared" ref="J7" si="7">(J6-I6)/I6</f>
         <v>0.49194587628865977</v>
       </c>
-      <c r="K7" s="121">
+      <c r="K7" s="121" t="n">
         <f t="shared" ref="K7" si="8">(K6-J6)/J6</f>
-        <v>3.4117901101274023E-2</v>
-      </c>
-      <c r="L7" s="121">
+        <v>0.03411790110127402</v>
+      </c>
+      <c r="L7" s="121" t="n">
         <f t="shared" ref="L7" si="9">(L6-K6)/K6</f>
-        <v>-0.24702443098768009</v>
-      </c>
-      <c r="M7" s="121">
+        <v>-0.2470244309876801</v>
+      </c>
+      <c r="M7" s="121" t="n">
         <f t="shared" ref="M7" si="10">(M6-L6)/L6</f>
         <v>0.39739323349972266</v>
       </c>
@@ -22493,38 +22510,38 @@
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="110">
-        <v>5666</v>
-      </c>
-      <c r="D9" s="110">
-        <v>5678</v>
-      </c>
-      <c r="E9" s="110">
-        <v>4671</v>
-      </c>
-      <c r="F9" s="110">
-        <v>5148</v>
-      </c>
-      <c r="G9" s="110">
-        <v>8210</v>
-      </c>
-      <c r="H9" s="110">
-        <v>8300</v>
-      </c>
-      <c r="I9" s="110">
-        <v>9284</v>
-      </c>
-      <c r="J9" s="110">
-        <v>8927</v>
-      </c>
-      <c r="K9" s="110">
-        <v>7454</v>
-      </c>
-      <c r="L9" s="110">
-        <v>7186</v>
-      </c>
-      <c r="M9" s="110">
-        <v>8460</v>
+      <c r="C9" s="110" t="n">
+        <v>5666.0</v>
+      </c>
+      <c r="D9" s="110" t="n">
+        <v>5678.0</v>
+      </c>
+      <c r="E9" s="110" t="n">
+        <v>4671.0</v>
+      </c>
+      <c r="F9" s="110" t="n">
+        <v>5148.0</v>
+      </c>
+      <c r="G9" s="110" t="n">
+        <v>8210.0</v>
+      </c>
+      <c r="H9" s="110" t="n">
+        <v>8300.0</v>
+      </c>
+      <c r="I9" s="110" t="n">
+        <v>9284.0</v>
+      </c>
+      <c r="J9" s="110" t="n">
+        <v>8927.0</v>
+      </c>
+      <c r="K9" s="110" t="n">
+        <v>7454.0</v>
+      </c>
+      <c r="L9" s="110" t="n">
+        <v>7186.0</v>
+      </c>
+      <c r="M9" s="110" t="n">
+        <v>8460.0</v>
       </c>
       <c r="Q9" s="107"/>
     </row>
@@ -22533,43 +22550,43 @@
         <v>27</v>
       </c>
       <c r="C10" s="113"/>
-      <c r="D10" s="121">
+      <c r="D10" s="121" t="n">
         <f t="shared" ref="D10" si="11">(D9-C9)/C9</f>
-        <v>2.1178962230850688E-3</v>
-      </c>
-      <c r="E10" s="121">
+        <v>0.002117896223085069</v>
+      </c>
+      <c r="E10" s="121" t="n">
         <f t="shared" ref="E10" si="12">(E9-D9)/D9</f>
         <v>-0.17735117999295527</v>
       </c>
-      <c r="F10" s="121">
+      <c r="F10" s="121" t="n">
         <f t="shared" ref="F10" si="13">(F9-E9)/E9</f>
         <v>0.10211946050096339</v>
       </c>
-      <c r="G10" s="121">
+      <c r="G10" s="121" t="n">
         <f t="shared" ref="G10" si="14">(G9-F9)/F9</f>
-        <v>0.59479409479409484</v>
-      </c>
-      <c r="H10" s="121">
+        <v>0.5947940947940948</v>
+      </c>
+      <c r="H10" s="121" t="n">
         <f t="shared" ref="H10" si="15">(H9-G9)/G9</f>
-        <v>1.0962241169305725E-2</v>
-      </c>
-      <c r="I10" s="121">
+        <v>0.010962241169305725</v>
+      </c>
+      <c r="I10" s="121" t="n">
         <f t="shared" ref="I10" si="16">(I9-H9)/H9</f>
         <v>0.11855421686746988</v>
       </c>
-      <c r="J10" s="121">
+      <c r="J10" s="121" t="n">
         <f t="shared" ref="J10" si="17">(J9-I9)/I9</f>
-        <v>-3.8453252908229214E-2</v>
-      </c>
-      <c r="K10" s="121">
+        <v>-0.038453252908229214</v>
+      </c>
+      <c r="K10" s="121" t="n">
         <f t="shared" ref="K10" si="18">(K9-J9)/J9</f>
         <v>-0.16500504088719614</v>
       </c>
-      <c r="L10" s="121">
+      <c r="L10" s="121" t="n">
         <f t="shared" ref="L10" si="19">(L9-K9)/K9</f>
-        <v>-3.5953850281727928E-2</v>
-      </c>
-      <c r="M10" s="121">
+        <v>-0.03595385028172793</v>
+      </c>
+      <c r="M10" s="121" t="n">
         <f t="shared" ref="M10" si="20">(M9-L9)/L9</f>
         <v>0.17728917339270805</v>
       </c>
@@ -22584,37 +22601,37 @@
       <c r="B12" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="110">
+      <c r="C12" s="110" t="n">
         <v>1059.9000244140625</v>
       </c>
-      <c r="D12" s="110">
+      <c r="D12" s="110" t="n">
         <v>1027.5</v>
       </c>
-      <c r="E12" s="110">
+      <c r="E12" s="110" t="n">
         <v>1013.5999755859375</v>
       </c>
-      <c r="F12" s="110">
-        <v>1109</v>
-      </c>
-      <c r="G12" s="110">
+      <c r="F12" s="110" t="n">
+        <v>1109.0</v>
+      </c>
+      <c r="G12" s="110" t="n">
         <v>1425.9000244140625</v>
       </c>
-      <c r="H12" s="110">
+      <c r="H12" s="110" t="n">
         <v>1391.4000244140625</v>
       </c>
-      <c r="I12" s="110">
+      <c r="I12" s="110" t="n">
         <v>1368.199951171875</v>
       </c>
-      <c r="J12" s="110">
+      <c r="J12" s="110" t="n">
         <v>1357.5</v>
       </c>
-      <c r="K12" s="110">
+      <c r="K12" s="110" t="n">
         <v>1351.0999755859375</v>
       </c>
-      <c r="L12" s="110">
-        <v>1354</v>
-      </c>
-      <c r="M12" s="110">
+      <c r="L12" s="110" t="n">
+        <v>1354.0</v>
+      </c>
+      <c r="M12" s="110" t="n">
         <v>1351.4000244140625</v>
       </c>
       <c r="Q12" s="107"/>
@@ -22624,45 +22641,45 @@
         <v>27</v>
       </c>
       <c r="C13" s="113"/>
-      <c r="D13" s="121">
+      <c r="D13" s="121" t="n">
         <f t="shared" ref="D13" si="21">(D12-C12)/C12</f>
-        <v>-3.0568943926550116E-2</v>
-      </c>
-      <c r="E13" s="121">
+        <v>-0.030568943926550116</v>
+      </c>
+      <c r="E13" s="121" t="n">
         <f t="shared" ref="E13" si="22">(E12-D12)/D12</f>
-        <v>-1.3528004295924574E-2</v>
-      </c>
-      <c r="F13" s="121">
+        <v>-0.013528004295924574</v>
+      </c>
+      <c r="F13" s="121" t="n">
         <f t="shared" ref="F13" si="23">(F12-E12)/E12</f>
-        <v>9.4119994782866714E-2</v>
-      </c>
-      <c r="G13" s="121">
+        <v>0.09411999478286671</v>
+      </c>
+      <c r="G13" s="121" t="n">
         <f t="shared" ref="G13" si="24">(G12-F12)/F12</f>
         <v>0.28575295258256356</v>
       </c>
-      <c r="H13" s="121">
+      <c r="H13" s="121" t="n">
         <f t="shared" ref="H13" si="25">(H12-G12)/G12</f>
-        <v>-2.419524469408503E-2</v>
-      </c>
-      <c r="I13" s="121">
+        <v>-0.02419524469408503</v>
+      </c>
+      <c r="I13" s="121" t="n">
         <f t="shared" ref="I13" si="26">(I12-H12)/H12</f>
-        <v>-1.667390601919632E-2</v>
-      </c>
-      <c r="J13" s="121">
+        <v>-0.01667390601919632</v>
+      </c>
+      <c r="J13" s="121" t="n">
         <f t="shared" ref="J13" si="27">(J12-I12)/I12</f>
-        <v>-7.8204586710519629E-3</v>
-      </c>
-      <c r="K13" s="121">
+        <v>-0.007820458671051963</v>
+      </c>
+      <c r="K13" s="121" t="n">
         <f t="shared" ref="K13" si="28">(K12-J12)/J12</f>
-        <v>-4.7145667875230206E-3</v>
-      </c>
-      <c r="L13" s="121">
+        <v>-0.004714566787523021</v>
+      </c>
+      <c r="L13" s="121" t="n">
         <f t="shared" ref="L13" si="29">(L12-K12)/K12</f>
-        <v>2.1464173388093121E-3</v>
-      </c>
-      <c r="M13" s="121">
+        <v>0.002146417338809312</v>
+      </c>
+      <c r="M13" s="121" t="n">
         <f t="shared" ref="M13" si="30">(M12-L12)/L12</f>
-        <v>-1.9202183057145494E-3</v>
+        <v>-0.0019202183057145494</v>
       </c>
       <c r="Q13" s="107"/>
     </row>
@@ -22675,37 +22692,37 @@
       <c r="B15" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="110" t="n">
         <v>3.4100000858306885</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D15" s="110" t="n">
         <v>3.369999885559082</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="110" t="n">
         <v>3.0199999809265137</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="110" t="n">
         <v>2.4100000858306885</v>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="110" t="n">
         <v>2.4800000190734863</v>
       </c>
-      <c r="H15" s="110">
-        <v>2.8900001049041748</v>
-      </c>
-      <c r="I15" s="110">
+      <c r="H15" s="110" t="n">
+        <v>2.890000104904175</v>
+      </c>
+      <c r="I15" s="110" t="n">
         <v>2.2699999809265137</v>
       </c>
-      <c r="J15" s="110">
+      <c r="J15" s="110" t="n">
         <v>3.4100000858306885</v>
       </c>
-      <c r="K15" s="110">
+      <c r="K15" s="110" t="n">
         <v>3.5399999618530273</v>
       </c>
-      <c r="L15" s="110">
+      <c r="L15" s="110" t="n">
         <v>2.6600000858306885</v>
       </c>
-      <c r="M15" s="110">
+      <c r="M15" s="110" t="n">
         <v>3.7300000190734863</v>
       </c>
       <c r="Q15" s="107"/>
@@ -22714,43 +22731,43 @@
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="121">
+      <c r="D16" s="121" t="n">
         <f t="shared" ref="D16" si="31">(D15-C15)/C15</f>
-        <v>-1.1730263714014595E-2</v>
-      </c>
-      <c r="E16" s="121">
+        <v>-0.011730263714014595</v>
+      </c>
+      <c r="E16" s="121" t="n">
         <f t="shared" ref="E16" si="32">(E15-D15)/D15</f>
         <v>-0.10385754199350761</v>
       </c>
-      <c r="F16" s="121">
+      <c r="F16" s="121" t="n">
         <f t="shared" ref="F16" si="33">(F15-E15)/E15</f>
         <v>-0.20198672150609825</v>
       </c>
-      <c r="G16" s="121">
+      <c r="G16" s="121" t="n">
         <f t="shared" ref="G16" si="34">(G15-F15)/F15</f>
-        <v>2.9045614419001151E-2</v>
-      </c>
-      <c r="H16" s="121">
+        <v>0.02904561441900115</v>
+      </c>
+      <c r="H16" s="121" t="n">
         <f t="shared" ref="H16" si="35">(H15-G15)/G15</f>
-        <v>0.16532261398282611</v>
-      </c>
-      <c r="I16" s="121">
+        <v>0.1653226139828261</v>
+      </c>
+      <c r="I16" s="121" t="n">
         <f t="shared" ref="I16" si="36">(I15-H15)/H15</f>
         <v>-0.21453290708382852</v>
       </c>
-      <c r="J16" s="121">
+      <c r="J16" s="121" t="n">
         <f t="shared" ref="J16" si="37">(J15-I15)/I15</f>
-        <v>0.50220269360481407</v>
-      </c>
-      <c r="K16" s="121">
+        <v>0.5022026936048141</v>
+      </c>
+      <c r="K16" s="121" t="n">
         <f t="shared" ref="K16" si="38">(K15-J15)/J15</f>
-        <v>3.8123129838769636E-2</v>
-      </c>
-      <c r="L16" s="121">
+        <v>0.038123129838769636</v>
+      </c>
+      <c r="L16" s="121" t="n">
         <f t="shared" ref="L16" si="39">(L15-K15)/K15</f>
         <v>-0.24858753827830518</v>
       </c>
-      <c r="M16" s="121">
+      <c r="M16" s="121" t="n">
         <f t="shared" ref="M16" si="40">(M15-L15)/L15</f>
         <v>0.40225560102140007</v>
       </c>
@@ -22800,38 +22817,38 @@
       <c r="B20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="110">
-        <v>3986</v>
-      </c>
-      <c r="D20" s="128">
-        <v>4485</v>
-      </c>
-      <c r="E20" s="128">
-        <v>4563</v>
-      </c>
-      <c r="F20" s="128">
-        <v>4331</v>
-      </c>
-      <c r="G20" s="128">
-        <v>4172</v>
-      </c>
-      <c r="H20" s="128">
-        <v>5626</v>
-      </c>
-      <c r="I20" s="128">
-        <v>3616</v>
-      </c>
-      <c r="J20" s="128">
-        <v>5873</v>
-      </c>
-      <c r="K20" s="128">
-        <v>6021</v>
-      </c>
-      <c r="L20" s="128">
-        <v>4885</v>
-      </c>
-      <c r="M20" s="128">
-        <v>5978</v>
+      <c r="C20" s="110" t="n">
+        <v>3986.0</v>
+      </c>
+      <c r="D20" s="128" t="n">
+        <v>4485.0</v>
+      </c>
+      <c r="E20" s="128" t="n">
+        <v>4563.0</v>
+      </c>
+      <c r="F20" s="128" t="n">
+        <v>4331.0</v>
+      </c>
+      <c r="G20" s="128" t="n">
+        <v>4172.0</v>
+      </c>
+      <c r="H20" s="128" t="n">
+        <v>5626.0</v>
+      </c>
+      <c r="I20" s="128" t="n">
+        <v>3616.0</v>
+      </c>
+      <c r="J20" s="128" t="n">
+        <v>5873.0</v>
+      </c>
+      <c r="K20" s="128" t="n">
+        <v>6021.0</v>
+      </c>
+      <c r="L20" s="128" t="n">
+        <v>4885.0</v>
+      </c>
+      <c r="M20" s="128" t="n">
+        <v>5978.0</v>
       </c>
       <c r="O20" s="107"/>
       <c r="P20" s="107"/>
@@ -22860,40 +22877,41 @@
       <c r="B21" s="31" t="s">
         <v>27</v>
       </c>
+      <c r="C21" s="110"/>
       <c r="D21" s="129"/>
-      <c r="E21" s="131">
+      <c r="E21" s="131" t="n">
         <f t="shared" ref="E21" si="41">(E20-D20)/D20</f>
-        <v>1.7391304347826087E-2</v>
-      </c>
-      <c r="F21" s="131">
+        <v>0.017391304347826087</v>
+      </c>
+      <c r="F21" s="131" t="n">
         <f t="shared" ref="F21" si="42">(F20-E20)/E20</f>
-        <v>-5.0843743151435458E-2</v>
-      </c>
-      <c r="G21" s="131">
+        <v>-0.05084374315143546</v>
+      </c>
+      <c r="G21" s="131" t="n">
         <f t="shared" ref="G21" si="43">(G20-F20)/F20</f>
-        <v>-3.6712075733087046E-2</v>
-      </c>
-      <c r="H21" s="131">
+        <v>-0.036712075733087046</v>
+      </c>
+      <c r="H21" s="131" t="n">
         <f t="shared" ref="H21" si="44">(H20-G20)/G20</f>
         <v>0.34851390220517736</v>
       </c>
-      <c r="I21" s="131">
+      <c r="I21" s="131" t="n">
         <f t="shared" ref="I21" si="45">(I20-H20)/H20</f>
         <v>-0.35726981869889796</v>
       </c>
-      <c r="J21" s="131">
+      <c r="J21" s="131" t="n">
         <f t="shared" ref="J21" si="46">(J20-I20)/I20</f>
-        <v>0.62417035398230092</v>
-      </c>
-      <c r="K21" s="131">
+        <v>0.6241703539823009</v>
+      </c>
+      <c r="K21" s="131" t="n">
         <f t="shared" ref="K21" si="47">(K20-J20)/J20</f>
-        <v>2.5200068108292183E-2</v>
-      </c>
-      <c r="L21" s="131">
+        <v>0.025200068108292183</v>
+      </c>
+      <c r="L21" s="131" t="n">
         <f t="shared" ref="L21" si="48">(L20-K20)/K20</f>
         <v>-0.18867297791064608</v>
       </c>
-      <c r="M21" s="131">
+      <c r="M21" s="131" t="n">
         <f t="shared" ref="M21" si="49">(M20-L20)/L20</f>
         <v>0.22374616171954964</v>
       </c>
@@ -22958,38 +22976,38 @@
       <c r="B23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="113">
-        <v>1021</v>
-      </c>
-      <c r="D23" s="130">
-        <v>1055</v>
-      </c>
-      <c r="E23" s="130">
-        <v>1116</v>
-      </c>
-      <c r="F23" s="130">
-        <v>1337</v>
-      </c>
-      <c r="G23" s="130">
-        <v>2139</v>
-      </c>
-      <c r="H23" s="130">
-        <v>2376</v>
-      </c>
-      <c r="I23" s="130">
-        <v>2494</v>
-      </c>
-      <c r="J23" s="130">
-        <v>2693</v>
-      </c>
-      <c r="K23" s="130">
-        <v>2894</v>
-      </c>
-      <c r="L23" s="130">
-        <v>3120</v>
-      </c>
-      <c r="M23" s="130">
-        <v>3383</v>
+      <c r="C23" s="113" t="n">
+        <v>1021.0</v>
+      </c>
+      <c r="D23" s="130" t="n">
+        <v>1055.0</v>
+      </c>
+      <c r="E23" s="130" t="n">
+        <v>1116.0</v>
+      </c>
+      <c r="F23" s="130" t="n">
+        <v>1337.0</v>
+      </c>
+      <c r="G23" s="130" t="n">
+        <v>2139.0</v>
+      </c>
+      <c r="H23" s="130" t="n">
+        <v>2376.0</v>
+      </c>
+      <c r="I23" s="130" t="n">
+        <v>2494.0</v>
+      </c>
+      <c r="J23" s="130" t="n">
+        <v>2693.0</v>
+      </c>
+      <c r="K23" s="130" t="n">
+        <v>2894.0</v>
+      </c>
+      <c r="L23" s="130" t="n">
+        <v>3120.0</v>
+      </c>
+      <c r="M23" s="130" t="n">
+        <v>3383.0</v>
       </c>
       <c r="O23" s="107"/>
       <c r="P23" s="107"/>
@@ -23015,45 +23033,45 @@
       <c r="AJ23" s="107"/>
     </row>
     <row r="24" spans="2:36">
-      <c r="D24" s="121">
+      <c r="D24" s="121" t="n">
         <f t="shared" ref="D24" si="50">(D23-C23)/C23</f>
-        <v>3.3300685602350638E-2</v>
-      </c>
-      <c r="E24" s="121">
+        <v>0.03330068560235064</v>
+      </c>
+      <c r="E24" s="121" t="n">
         <f t="shared" ref="E24" si="51">(E23-D23)/D23</f>
-        <v>5.7819905213270142E-2</v>
-      </c>
-      <c r="F24" s="121">
+        <v>0.05781990521327014</v>
+      </c>
+      <c r="F24" s="121" t="n">
         <f t="shared" ref="F24" si="52">(F23-E23)/E23</f>
         <v>0.19802867383512546</v>
       </c>
-      <c r="G24" s="121">
+      <c r="G24" s="121" t="n">
         <f t="shared" ref="G24" si="53">(G23-F23)/F23</f>
-        <v>0.59985041136873596</v>
-      </c>
-      <c r="H24" s="121">
+        <v>0.599850411368736</v>
+      </c>
+      <c r="H24" s="121" t="n">
         <f t="shared" ref="H24" si="54">(H23-G23)/G23</f>
         <v>0.11079943899018233</v>
       </c>
-      <c r="I24" s="121">
+      <c r="I24" s="121" t="n">
         <f t="shared" ref="I24" si="55">(I23-H23)/H23</f>
-        <v>4.9663299663299666E-2</v>
-      </c>
-      <c r="J24" s="121">
+        <v>0.049663299663299666</v>
+      </c>
+      <c r="J24" s="121" t="n">
         <f t="shared" ref="J24" si="56">(J23-I23)/I23</f>
-        <v>7.9791499599037696E-2</v>
-      </c>
-      <c r="K24" s="121">
+        <v>0.0797914995990377</v>
+      </c>
+      <c r="K24" s="121" t="n">
         <f t="shared" ref="K24" si="57">(K23-J23)/J23</f>
-        <v>7.4637950241366505E-2</v>
-      </c>
-      <c r="L24" s="121">
+        <v>0.0746379502413665</v>
+      </c>
+      <c r="L24" s="121" t="n">
         <f t="shared" ref="L24" si="58">(L23-K23)/K23</f>
-        <v>7.8092605390463032E-2</v>
-      </c>
-      <c r="M24" s="121">
+        <v>0.07809260539046303</v>
+      </c>
+      <c r="M24" s="121" t="n">
         <f t="shared" ref="M24" si="59">(M23-L23)/L23</f>
-        <v>8.4294871794871801E-2</v>
+        <v>0.0842948717948718</v>
       </c>
       <c r="O24" s="107"/>
       <c r="P24" s="107"/>
@@ -23190,38 +23208,38 @@
       <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="110">
-        <v>16336</v>
-      </c>
-      <c r="D28" s="110">
-        <v>17852</v>
-      </c>
-      <c r="E28" s="110">
-        <v>21210</v>
-      </c>
-      <c r="F28" s="110">
-        <v>30844</v>
-      </c>
-      <c r="G28" s="110">
-        <v>23600</v>
-      </c>
-      <c r="H28" s="110">
-        <v>24873</v>
-      </c>
-      <c r="I28" s="110">
-        <v>22980</v>
-      </c>
-      <c r="J28" s="110">
-        <v>21967</v>
-      </c>
-      <c r="K28" s="110">
-        <v>22031</v>
-      </c>
-      <c r="L28" s="110">
-        <v>22548</v>
-      </c>
-      <c r="M28" s="110">
-        <v>23059</v>
+      <c r="C28" s="110" t="n">
+        <v>16336.0</v>
+      </c>
+      <c r="D28" s="110" t="n">
+        <v>17852.0</v>
+      </c>
+      <c r="E28" s="110" t="n">
+        <v>21210.0</v>
+      </c>
+      <c r="F28" s="110" t="n">
+        <v>30844.0</v>
+      </c>
+      <c r="G28" s="110" t="n">
+        <v>23600.0</v>
+      </c>
+      <c r="H28" s="110" t="n">
+        <v>24873.0</v>
+      </c>
+      <c r="I28" s="110" t="n">
+        <v>22980.0</v>
+      </c>
+      <c r="J28" s="110" t="n">
+        <v>21967.0</v>
+      </c>
+      <c r="K28" s="110" t="n">
+        <v>22031.0</v>
+      </c>
+      <c r="L28" s="110" t="n">
+        <v>22548.0</v>
+      </c>
+      <c r="M28" s="110" t="n">
+        <v>23059.0</v>
       </c>
       <c r="O28" s="107"/>
       <c r="P28" s="107"/>
@@ -23251,45 +23269,45 @@
         <v>27</v>
       </c>
       <c r="C29" s="113"/>
-      <c r="D29" s="121">
+      <c r="D29" s="121" t="n">
         <f t="shared" ref="D29" si="60">(D28-C28)/C28</f>
-        <v>9.2801175318315374E-2</v>
-      </c>
-      <c r="E29" s="121">
+        <v>0.09280117531831537</v>
+      </c>
+      <c r="E29" s="121" t="n">
         <f t="shared" ref="E29" si="61">(E28-D28)/D28</f>
         <v>0.18810217342594668</v>
       </c>
-      <c r="F29" s="121">
+      <c r="F29" s="121" t="n">
         <f t="shared" ref="F29" si="62">(F28-E28)/E28</f>
-        <v>0.45421970768505421</v>
-      </c>
-      <c r="G29" s="121">
+        <v>0.4542197076850542</v>
+      </c>
+      <c r="G29" s="121" t="n">
         <f t="shared" ref="G29" si="63">(G28-F28)/F28</f>
         <v>-0.23485929192063287</v>
       </c>
-      <c r="H29" s="121">
+      <c r="H29" s="121" t="n">
         <f t="shared" ref="H29" si="64">(H28-G28)/G28</f>
-        <v>5.3940677966101698E-2</v>
-      </c>
-      <c r="I29" s="121">
+        <v>0.0539406779661017</v>
+      </c>
+      <c r="I29" s="121" t="n">
         <f t="shared" ref="I29" si="65">(I28-H28)/H28</f>
-        <v>-7.6106621637920632E-2</v>
-      </c>
-      <c r="J29" s="121">
+        <v>-0.07610662163792063</v>
+      </c>
+      <c r="J29" s="121" t="n">
         <f t="shared" ref="J29" si="66">(J28-I28)/I28</f>
-        <v>-4.4081810269799827E-2</v>
-      </c>
-      <c r="K29" s="121">
+        <v>-0.04408181026979983</v>
+      </c>
+      <c r="K29" s="121" t="n">
         <f t="shared" ref="K29" si="67">(K28-J28)/J28</f>
-        <v>2.9134611007420219E-3</v>
-      </c>
-      <c r="L29" s="121">
+        <v>0.002913461100742022</v>
+      </c>
+      <c r="L29" s="121" t="n">
         <f t="shared" ref="L29" si="68">(L28-K28)/K28</f>
-        <v>2.3466932958104487E-2</v>
-      </c>
-      <c r="M29" s="121">
+        <v>0.023466932958104487</v>
+      </c>
+      <c r="M29" s="121" t="n">
         <f t="shared" ref="M29" si="69">(M28-L28)/L28</f>
-        <v>2.2662763881497249E-2</v>
+        <v>0.02266276388149725</v>
       </c>
       <c r="O29" s="107"/>
       <c r="P29" s="107"/>
@@ -23342,38 +23360,38 @@
       <c r="B31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="110">
-        <v>16482</v>
-      </c>
-      <c r="D31" s="110">
-        <v>17048</v>
-      </c>
-      <c r="E31" s="110">
-        <v>16733</v>
-      </c>
-      <c r="F31" s="110">
-        <v>75841</v>
-      </c>
-      <c r="G31" s="110">
-        <v>76044</v>
-      </c>
-      <c r="H31" s="110">
-        <v>74984</v>
-      </c>
-      <c r="I31" s="110">
-        <v>68413</v>
-      </c>
-      <c r="J31" s="110">
-        <v>67727</v>
-      </c>
-      <c r="K31" s="110">
-        <v>68658</v>
-      </c>
-      <c r="L31" s="110">
-        <v>70534</v>
-      </c>
-      <c r="M31" s="110">
-        <v>67921</v>
+      <c r="C31" s="110" t="n">
+        <v>16482.0</v>
+      </c>
+      <c r="D31" s="110" t="n">
+        <v>17048.0</v>
+      </c>
+      <c r="E31" s="110" t="n">
+        <v>16733.0</v>
+      </c>
+      <c r="F31" s="110" t="n">
+        <v>75841.0</v>
+      </c>
+      <c r="G31" s="110" t="n">
+        <v>76044.0</v>
+      </c>
+      <c r="H31" s="110" t="n">
+        <v>74984.0</v>
+      </c>
+      <c r="I31" s="110" t="n">
+        <v>68413.0</v>
+      </c>
+      <c r="J31" s="110" t="n">
+        <v>67727.0</v>
+      </c>
+      <c r="K31" s="110" t="n">
+        <v>68658.0</v>
+      </c>
+      <c r="L31" s="110" t="n">
+        <v>70534.0</v>
+      </c>
+      <c r="M31" s="110" t="n">
+        <v>67921.0</v>
       </c>
       <c r="O31" s="107"/>
       <c r="P31" s="107"/>
@@ -23403,45 +23421,45 @@
         <v>27</v>
       </c>
       <c r="C32" s="113"/>
-      <c r="D32" s="121">
+      <c r="D32" s="121" t="n">
         <f t="shared" ref="D32" si="70">(D31-C31)/C31</f>
-        <v>3.4340492658657927E-2</v>
-      </c>
-      <c r="E32" s="121">
+        <v>0.03434049265865793</v>
+      </c>
+      <c r="E32" s="121" t="n">
         <f t="shared" ref="E32" si="71">(E31-D31)/D31</f>
-        <v>-1.8477240732050679E-2</v>
-      </c>
-      <c r="F32" s="121">
+        <v>-0.01847724073205068</v>
+      </c>
+      <c r="F32" s="121" t="n">
         <f t="shared" ref="F32" si="72">(F31-E31)/E31</f>
-        <v>3.5324209645610471</v>
-      </c>
-      <c r="G32" s="121">
+        <v>3.532420964561047</v>
+      </c>
+      <c r="G32" s="121" t="n">
         <f t="shared" ref="G32" si="73">(G31-F31)/F31</f>
-        <v>2.6766524702997061E-3</v>
-      </c>
-      <c r="H32" s="121">
+        <v>0.002676652470299706</v>
+      </c>
+      <c r="H32" s="121" t="n">
         <f t="shared" ref="H32" si="74">(H31-G31)/G31</f>
-        <v>-1.3939298300983642E-2</v>
-      </c>
-      <c r="I32" s="121">
+        <v>-0.013939298300983642</v>
+      </c>
+      <c r="I32" s="121" t="n">
         <f t="shared" ref="I32" si="75">(I31-H31)/H31</f>
-        <v>-8.7632028166008749E-2</v>
-      </c>
-      <c r="J32" s="121">
+        <v>-0.08763202816600875</v>
+      </c>
+      <c r="J32" s="121" t="n">
         <f t="shared" ref="J32" si="76">(J31-I31)/I31</f>
-        <v>-1.0027333986230687E-2</v>
-      </c>
-      <c r="K32" s="121">
+        <v>-0.010027333986230687</v>
+      </c>
+      <c r="K32" s="121" t="n">
         <f t="shared" ref="K32" si="77">(K31-J31)/J31</f>
-        <v>1.3746364079318439E-2</v>
-      </c>
-      <c r="L32" s="121">
+        <v>0.01374636407931844</v>
+      </c>
+      <c r="L32" s="121" t="n">
         <f t="shared" ref="L32" si="78">(L31-K31)/K31</f>
-        <v>2.7323836989134553E-2</v>
-      </c>
-      <c r="M32" s="121">
+        <v>0.027323836989134553</v>
+      </c>
+      <c r="M32" s="121" t="n">
         <f t="shared" ref="M32" si="79">(M31-L31)/L31</f>
-        <v>-3.7045963648736781E-2</v>
+        <v>-0.03704596364873678</v>
       </c>
       <c r="O32" s="107"/>
       <c r="P32" s="107"/>
@@ -23495,45 +23513,45 @@
         <v>50</v>
       </c>
       <c r="C34" s="111"/>
-      <c r="D34" s="111">
+      <c r="D34" s="111" t="n">
         <f>D28+D31</f>
-        <v>34900</v>
-      </c>
-      <c r="E34" s="111">
+        <v>34900.0</v>
+      </c>
+      <c r="E34" s="111" t="n">
         <f t="shared" ref="E34:M34" si="80">E28+E31</f>
-        <v>37943</v>
-      </c>
-      <c r="F34" s="111">
+        <v>37943.0</v>
+      </c>
+      <c r="F34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>106685</v>
-      </c>
-      <c r="G34" s="111">
+        <v>106685.0</v>
+      </c>
+      <c r="G34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>99644</v>
-      </c>
-      <c r="H34" s="111">
+        <v>99644.0</v>
+      </c>
+      <c r="H34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>99857</v>
-      </c>
-      <c r="I34" s="111">
+        <v>99857.0</v>
+      </c>
+      <c r="I34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>91393</v>
-      </c>
-      <c r="J34" s="111">
+        <v>91393.0</v>
+      </c>
+      <c r="J34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>89694</v>
-      </c>
-      <c r="K34" s="111">
+        <v>89694.0</v>
+      </c>
+      <c r="K34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>90689</v>
-      </c>
-      <c r="L34" s="111">
+        <v>90689.0</v>
+      </c>
+      <c r="L34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>93082</v>
-      </c>
-      <c r="M34" s="111">
+        <v>93082.0</v>
+      </c>
+      <c r="M34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>90980</v>
+        <v>90980.0</v>
       </c>
       <c r="O34" s="107"/>
       <c r="P34" s="107"/>
@@ -23586,38 +23604,38 @@
       <c r="B36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="113">
-        <v>5927</v>
-      </c>
-      <c r="D36" s="118">
-        <v>3950</v>
-      </c>
-      <c r="E36" s="110">
-        <v>5559</v>
-      </c>
-      <c r="F36" s="110">
-        <v>9173</v>
-      </c>
-      <c r="G36" s="110">
-        <v>7165</v>
-      </c>
-      <c r="H36" s="110">
-        <v>14264</v>
-      </c>
-      <c r="I36" s="110">
-        <v>10084</v>
-      </c>
-      <c r="J36" s="110">
-        <v>8472</v>
-      </c>
-      <c r="K36" s="110">
-        <v>10366</v>
-      </c>
-      <c r="L36" s="110">
-        <v>8509</v>
-      </c>
-      <c r="M36" s="110">
-        <v>12394</v>
+      <c r="C36" s="113" t="n">
+        <v>5927.0</v>
+      </c>
+      <c r="D36" s="118" t="n">
+        <v>3950.0</v>
+      </c>
+      <c r="E36" s="110" t="n">
+        <v>5559.0</v>
+      </c>
+      <c r="F36" s="110" t="n">
+        <v>9173.0</v>
+      </c>
+      <c r="G36" s="110" t="n">
+        <v>7165.0</v>
+      </c>
+      <c r="H36" s="110" t="n">
+        <v>14264.0</v>
+      </c>
+      <c r="I36" s="110" t="n">
+        <v>10084.0</v>
+      </c>
+      <c r="J36" s="110" t="n">
+        <v>8472.0</v>
+      </c>
+      <c r="K36" s="110" t="n">
+        <v>10366.0</v>
+      </c>
+      <c r="L36" s="110" t="n">
+        <v>8509.0</v>
+      </c>
+      <c r="M36" s="110" t="n">
+        <v>12394.0</v>
       </c>
       <c r="O36" s="107"/>
       <c r="P36" s="107"/>
@@ -23647,43 +23665,43 @@
         <v>27</v>
       </c>
       <c r="C37" s="113"/>
-      <c r="D37" s="121">
+      <c r="D37" s="121" t="n">
         <f t="shared" ref="D37" si="81">(D36-C36)/C36</f>
-        <v>-0.33355829255947361</v>
-      </c>
-      <c r="E37" s="121">
+        <v>-0.3335582925594736</v>
+      </c>
+      <c r="E37" s="121" t="n">
         <f t="shared" ref="E37" si="82">(E36-D36)/D36</f>
-        <v>0.40734177215189871</v>
-      </c>
-      <c r="F37" s="121">
+        <v>0.4073417721518987</v>
+      </c>
+      <c r="F37" s="121" t="n">
         <f t="shared" ref="F37" si="83">(F36-E36)/E36</f>
-        <v>0.65011692750494698</v>
-      </c>
-      <c r="G37" s="121">
+        <v>0.650116927504947</v>
+      </c>
+      <c r="G37" s="121" t="n">
         <f t="shared" ref="G37" si="84">(G36-F36)/F36</f>
         <v>-0.21890330317235365</v>
       </c>
-      <c r="H37" s="121">
+      <c r="H37" s="121" t="n">
         <f t="shared" ref="H37" si="85">(H36-G36)/G36</f>
-        <v>0.99078855547801814</v>
-      </c>
-      <c r="I37" s="121">
+        <v>0.9907885554780181</v>
+      </c>
+      <c r="I37" s="121" t="n">
         <f t="shared" ref="I37" si="86">(I36-H36)/H36</f>
         <v>-0.2930454290521593</v>
       </c>
-      <c r="J37" s="121">
+      <c r="J37" s="121" t="n">
         <f t="shared" ref="J37" si="87">(J36-I36)/I36</f>
-        <v>-0.15985719952399841</v>
-      </c>
-      <c r="K37" s="121">
+        <v>-0.1598571995239984</v>
+      </c>
+      <c r="K37" s="121" t="n">
         <f t="shared" ref="K37" si="88">(K36-J36)/J36</f>
         <v>0.22355996222851746</v>
       </c>
-      <c r="L37" s="121">
+      <c r="L37" s="121" t="n">
         <f t="shared" ref="L37" si="89">(L36-K36)/K36</f>
         <v>-0.17914335327030678</v>
       </c>
-      <c r="M37" s="121">
+      <c r="M37" s="121" t="n">
         <f t="shared" ref="M37" si="90">(M36-L36)/L36</f>
         <v>0.4565753907627218</v>
       </c>
@@ -23738,38 +23756,38 @@
       <c r="B39" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="113">
-        <v>9778</v>
-      </c>
-      <c r="D39" s="110">
-        <v>12279</v>
-      </c>
-      <c r="E39" s="110">
-        <v>12941</v>
-      </c>
-      <c r="F39" s="110">
-        <v>44282</v>
-      </c>
-      <c r="G39" s="110">
-        <v>40416</v>
-      </c>
-      <c r="H39" s="110">
-        <v>35263</v>
-      </c>
-      <c r="I39" s="110">
-        <v>30487</v>
-      </c>
-      <c r="J39" s="110">
-        <v>31010</v>
-      </c>
-      <c r="K39" s="110">
-        <v>29451</v>
-      </c>
-      <c r="L39" s="110">
-        <v>32970</v>
-      </c>
-      <c r="M39" s="110">
-        <v>25866</v>
+      <c r="C39" s="113" t="n">
+        <v>9778.0</v>
+      </c>
+      <c r="D39" s="110" t="n">
+        <v>12279.0</v>
+      </c>
+      <c r="E39" s="110" t="n">
+        <v>12941.0</v>
+      </c>
+      <c r="F39" s="110" t="n">
+        <v>44282.0</v>
+      </c>
+      <c r="G39" s="110" t="n">
+        <v>40416.0</v>
+      </c>
+      <c r="H39" s="110" t="n">
+        <v>35263.0</v>
+      </c>
+      <c r="I39" s="110" t="n">
+        <v>30487.0</v>
+      </c>
+      <c r="J39" s="110" t="n">
+        <v>31010.0</v>
+      </c>
+      <c r="K39" s="110" t="n">
+        <v>29451.0</v>
+      </c>
+      <c r="L39" s="110" t="n">
+        <v>32970.0</v>
+      </c>
+      <c r="M39" s="110" t="n">
+        <v>25866.0</v>
       </c>
       <c r="O39" s="107"/>
       <c r="P39" s="107"/>
@@ -23799,43 +23817,43 @@
         <v>27</v>
       </c>
       <c r="C40" s="113"/>
-      <c r="D40" s="121">
+      <c r="D40" s="121" t="n">
         <f t="shared" ref="D40" si="91">(D39-C39)/C39</f>
-        <v>0.25577827776641437</v>
-      </c>
-      <c r="E40" s="121">
+        <v>0.2557782777664144</v>
+      </c>
+      <c r="E40" s="121" t="n">
         <f t="shared" ref="E40" si="92">(E39-D39)/D39</f>
-        <v>5.39131851127942E-2</v>
-      </c>
-      <c r="F40" s="121">
+        <v>0.0539131851127942</v>
+      </c>
+      <c r="F40" s="121" t="n">
         <f t="shared" ref="F40" si="93">(F39-E39)/E39</f>
         <v>2.421837570512325</v>
       </c>
-      <c r="G40" s="121">
+      <c r="G40" s="121" t="n">
         <f t="shared" ref="G40" si="94">(G39-F39)/F39</f>
-        <v>-8.7304096472607381E-2</v>
-      </c>
-      <c r="H40" s="121">
+        <v>-0.08730409647260738</v>
+      </c>
+      <c r="H40" s="121" t="n">
         <f t="shared" ref="H40" si="95">(H39-G39)/G39</f>
         <v>-0.1274990102929533</v>
       </c>
-      <c r="I40" s="121">
+      <c r="I40" s="121" t="n">
         <f t="shared" ref="I40" si="96">(I39-H39)/H39</f>
         <v>-0.13543941241527946</v>
       </c>
-      <c r="J40" s="121">
+      <c r="J40" s="121" t="n">
         <f t="shared" ref="J40" si="97">(J39-I39)/I39</f>
-        <v>1.7154852888116245E-2</v>
-      </c>
-      <c r="K40" s="121">
+        <v>0.017154852888116245</v>
+      </c>
+      <c r="K40" s="121" t="n">
         <f t="shared" ref="K40" si="98">(K39-J39)/J39</f>
-        <v>-5.0274105127378267E-2</v>
-      </c>
-      <c r="L40" s="121">
+        <v>-0.05027410512737827</v>
+      </c>
+      <c r="L40" s="121" t="n">
         <f t="shared" ref="L40" si="99">(L39-K39)/K39</f>
         <v>0.11948660486910462</v>
       </c>
-      <c r="M40" s="121">
+      <c r="M40" s="121" t="n">
         <f t="shared" ref="M40" si="100">(M39-L39)/L39</f>
         <v>-0.21546860782529573</v>
       </c>
@@ -23893,45 +23911,45 @@
       <c r="C42" s="116">
         <v>1</v>
       </c>
-      <c r="D42" s="111">
+      <c r="D42" s="111" t="n">
         <f>D36+D39</f>
-        <v>16229</v>
-      </c>
-      <c r="E42" s="111">
+        <v>16229.0</v>
+      </c>
+      <c r="E42" s="111" t="n">
         <f t="shared" ref="E42:M42" si="101">E36+E39</f>
-        <v>18500</v>
-      </c>
-      <c r="F42" s="111">
+        <v>18500.0</v>
+      </c>
+      <c r="F42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>53455</v>
-      </c>
-      <c r="G42" s="111">
+        <v>53455.0</v>
+      </c>
+      <c r="G42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>47581</v>
-      </c>
-      <c r="H42" s="111">
+        <v>47581.0</v>
+      </c>
+      <c r="H42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>49527</v>
-      </c>
-      <c r="I42" s="111">
+        <v>49527.0</v>
+      </c>
+      <c r="I42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>40571</v>
-      </c>
-      <c r="J42" s="111">
+        <v>40571.0</v>
+      </c>
+      <c r="J42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>39482</v>
-      </c>
-      <c r="K42" s="111">
+        <v>39482.0</v>
+      </c>
+      <c r="K42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>39817</v>
-      </c>
-      <c r="L42" s="111">
+        <v>39817.0</v>
+      </c>
+      <c r="L42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>41479</v>
-      </c>
-      <c r="M42" s="111">
+        <v>41479.0</v>
+      </c>
+      <c r="M42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>38260</v>
+        <v>38260.0</v>
       </c>
       <c r="O42" s="107"/>
       <c r="P42" s="107"/>
@@ -23989,45 +24007,45 @@
       <c r="C44" s="134">
         <v>1</v>
       </c>
-      <c r="D44" s="134">
+      <c r="D44" s="134" t="n">
         <f>D34-D42</f>
-        <v>18671</v>
-      </c>
-      <c r="E44" s="134">
+        <v>18671.0</v>
+      </c>
+      <c r="E44" s="134" t="n">
         <f t="shared" ref="E44:M44" si="102">E34-E42</f>
-        <v>19443</v>
-      </c>
-      <c r="F44" s="134">
+        <v>19443.0</v>
+      </c>
+      <c r="F44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>53230</v>
-      </c>
-      <c r="G44" s="134">
+        <v>53230.0</v>
+      </c>
+      <c r="G44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>52063</v>
-      </c>
-      <c r="H44" s="134">
+        <v>52063.0</v>
+      </c>
+      <c r="H44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>50330</v>
-      </c>
-      <c r="I44" s="134">
+        <v>50330.0</v>
+      </c>
+      <c r="I44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>50822</v>
-      </c>
-      <c r="J44" s="134">
+        <v>50822.0</v>
+      </c>
+      <c r="J44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>50212</v>
-      </c>
-      <c r="K44" s="134">
+        <v>50212.0</v>
+      </c>
+      <c r="K44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>50872</v>
-      </c>
-      <c r="L44" s="134">
+        <v>50872.0</v>
+      </c>
+      <c r="L44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>51603</v>
-      </c>
-      <c r="M44" s="134">
+        <v>51603.0</v>
+      </c>
+      <c r="M44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>52720</v>
+        <v>52720.0</v>
       </c>
       <c r="O44" s="107"/>
       <c r="P44" s="107"/>
@@ -24089,40 +24107,40 @@
     </row>
     <row r="46" spans="2:36">
       <c r="B46" s="122" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="133">
-        <v>7359</v>
-      </c>
-      <c r="D46" s="133">
-        <v>9741</v>
-      </c>
-      <c r="E46" s="133">
-        <v>10315</v>
-      </c>
-      <c r="F46" s="133">
-        <v>33752</v>
-      </c>
-      <c r="G46" s="133">
-        <v>30109</v>
-      </c>
-      <c r="H46" s="133">
-        <v>25921</v>
-      </c>
-      <c r="I46" s="133">
-        <v>23699</v>
-      </c>
-      <c r="J46" s="133">
-        <v>24486</v>
-      </c>
-      <c r="K46" s="136">
-        <v>22021</v>
-      </c>
-      <c r="L46" s="133">
-        <v>26378</v>
-      </c>
-      <c r="M46" s="133">
-        <v>20372</v>
+        <v>158</v>
+      </c>
+      <c r="C46" s="133" t="n">
+        <v>7359.0</v>
+      </c>
+      <c r="D46" s="133" t="n">
+        <v>9741.0</v>
+      </c>
+      <c r="E46" s="133" t="n">
+        <v>10315.0</v>
+      </c>
+      <c r="F46" s="133" t="n">
+        <v>33752.0</v>
+      </c>
+      <c r="G46" s="133" t="n">
+        <v>30109.0</v>
+      </c>
+      <c r="H46" s="133" t="n">
+        <v>25921.0</v>
+      </c>
+      <c r="I46" s="133" t="n">
+        <v>23699.0</v>
+      </c>
+      <c r="J46" s="133" t="n">
+        <v>24486.0</v>
+      </c>
+      <c r="K46" s="136" t="n">
+        <v>22021.0</v>
+      </c>
+      <c r="L46" s="133" t="n">
+        <v>26378.0</v>
+      </c>
+      <c r="M46" s="133" t="n">
+        <v>20372.0</v>
       </c>
       <c r="Q46" s="107"/>
       <c r="R46" s="107"/>
@@ -24256,43 +24274,43 @@
         <v>57</v>
       </c>
       <c r="C50" s="113"/>
-      <c r="D50" s="126">
+      <c r="D50" s="126" t="n">
         <f t="shared" ref="D50:M50" si="103">D6/D3</f>
         <v>0.20898131404460518</v>
       </c>
-      <c r="E50" s="126">
+      <c r="E50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.18024110555718906</v>
       </c>
-      <c r="F50" s="126">
+      <c r="F50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.13202704703617787</v>
       </c>
-      <c r="G50" s="126">
+      <c r="G50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.12270662088579058</v>
       </c>
-      <c r="H50" s="126">
+      <c r="H50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.13557724671827667</v>
       </c>
-      <c r="I50" s="126">
+      <c r="I50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.10362901879611391</v>
       </c>
-      <c r="J50" s="126">
+      <c r="J50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.1515528356841313</v>
       </c>
-      <c r="K50" s="126">
+      <c r="K50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.16563483554110608</v>
       </c>
-      <c r="L50" s="126">
+      <c r="L50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.11973304113955573</v>
       </c>
-      <c r="M50" s="126">
+      <c r="M50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.1590292242630815</v>
       </c>
@@ -24324,45 +24342,45 @@
         <v>58</v>
       </c>
       <c r="C51" s="113"/>
-      <c r="D51" s="126">
+      <c r="D51" s="126" t="n">
         <f t="shared" ref="D51:M51" si="104">D9/D3</f>
-        <v>0.34225437010247139</v>
-      </c>
-      <c r="E51" s="126">
+        <v>0.3422543701024714</v>
+      </c>
+      <c r="E51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.27468391649514851</v>
-      </c>
-      <c r="F51" s="126">
+        <v>0.2746839164951485</v>
+      </c>
+      <c r="F51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.25408420117467057</v>
       </c>
-      <c r="G51" s="126">
+      <c r="G51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.28474317622169043</v>
       </c>
-      <c r="H51" s="126">
+      <c r="H51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.27936721642544599</v>
-      </c>
-      <c r="I51" s="126">
+        <v>0.279367216425446</v>
+      </c>
+      <c r="I51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.30995225853837677</v>
       </c>
-      <c r="J51" s="126">
+      <c r="J51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.29214255326111854</v>
       </c>
-      <c r="K51" s="126">
+      <c r="K51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.25780790647805485</v>
       </c>
-      <c r="L51" s="126">
+      <c r="L51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.23860278248165487</v>
       </c>
-      <c r="M51" s="126">
+      <c r="M51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.26699488733194471</v>
+        <v>0.2669948873319447</v>
       </c>
       <c r="O51" s="107"/>
       <c r="P51" s="107"/>
@@ -24392,43 +24410,43 @@
         <v>59</v>
       </c>
       <c r="C52" s="113"/>
-      <c r="D52" s="126">
+      <c r="D52" s="126" t="n">
         <f t="shared" ref="D52:M52" si="105">D20/D3</f>
         <v>0.27034358047016277</v>
       </c>
-      <c r="E52" s="126">
+      <c r="E52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.26833284328138785</v>
       </c>
-      <c r="F52" s="126">
+      <c r="F52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.21376042643502294</v>
       </c>
-      <c r="G52" s="126">
+      <c r="G52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.14469531439669822</v>
       </c>
-      <c r="H52" s="126">
+      <c r="H52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.18936385055536856</v>
       </c>
-      <c r="I52" s="126">
+      <c r="I52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.1207224651954729</v>
       </c>
-      <c r="J52" s="126">
+      <c r="J52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.1921981869947966</v>
       </c>
-      <c r="K52" s="126">
+      <c r="K52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.20824542593297132</v>
       </c>
-      <c r="L52" s="126">
+      <c r="L52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.16220075040674703</v>
       </c>
-      <c r="M52" s="126">
+      <c r="M52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.18866376317616612</v>
       </c>
@@ -24542,45 +24560,45 @@
         <v>62</v>
       </c>
       <c r="C55" s="114"/>
-      <c r="D55" s="126">
+      <c r="D55" s="126" t="n">
         <f>D23/D20</f>
         <v>0.23522853957636566</v>
       </c>
-      <c r="E55" s="126">
+      <c r="E55" s="126" t="n">
         <f t="shared" ref="E55:M55" si="106">E23/E20</f>
-        <v>0.24457593688362919</v>
-      </c>
-      <c r="F55" s="126">
+        <v>0.2445759368836292</v>
+      </c>
+      <c r="F55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.30870468713922883</v>
       </c>
-      <c r="G55" s="126">
+      <c r="G55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.5127037392138063</v>
       </c>
-      <c r="H55" s="126">
+      <c r="H55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.42232492001421967</v>
-      </c>
-      <c r="I55" s="126">
+        <v>0.4223249200142197</v>
+      </c>
+      <c r="I55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.68971238938053092</v>
-      </c>
-      <c r="J55" s="126">
+        <v>0.6897123893805309</v>
+      </c>
+      <c r="J55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.45853907713264092</v>
-      </c>
-      <c r="K55" s="126">
+        <v>0.4585390771326409</v>
+      </c>
+      <c r="K55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.48065105464208602</v>
-      </c>
-      <c r="L55" s="126">
+        <v>0.480651054642086</v>
+      </c>
+      <c r="L55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.63868986693961105</v>
-      </c>
-      <c r="M55" s="126">
+        <v>0.638689866939611</v>
+      </c>
+      <c r="M55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.56590833054533285</v>
+        <v>0.5659083305453328</v>
       </c>
       <c r="O55" s="107"/>
       <c r="P55" s="107"/>
@@ -24692,45 +24710,45 @@
         <v>64</v>
       </c>
       <c r="C58" s="113"/>
-      <c r="D58" s="112">
+      <c r="D58" s="112" t="n">
         <f>D42/D44</f>
-        <v>0.86920893364040486</v>
-      </c>
-      <c r="E58" s="112">
+        <v>0.8692089336404049</v>
+      </c>
+      <c r="E58" s="112" t="n">
         <f t="shared" ref="E58:M58" si="107">E42/E44</f>
-        <v>0.95149925423031423</v>
-      </c>
-      <c r="F58" s="112">
+        <v>0.9514992542303142</v>
+      </c>
+      <c r="F58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.0042269396956602</v>
       </c>
-      <c r="G58" s="112">
+      <c r="G58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>0.91391199124138067</v>
-      </c>
-      <c r="H58" s="112">
+        <v>0.9139119912413807</v>
+      </c>
+      <c r="H58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>0.98404530101331211</v>
-      </c>
-      <c r="I58" s="112">
+        <v>0.9840453010133121</v>
+      </c>
+      <c r="I58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>0.79829601353744439</v>
-      </c>
-      <c r="J58" s="112">
+        <v>0.7982960135374444</v>
+      </c>
+      <c r="J58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>0.78630606229586553</v>
-      </c>
-      <c r="K58" s="112">
+        <v>0.7863060622958655</v>
+      </c>
+      <c r="K58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>0.78268988834722442</v>
-      </c>
-      <c r="L58" s="112">
+        <v>0.7826898883472244</v>
+      </c>
+      <c r="L58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>0.80380985601612309</v>
-      </c>
-      <c r="M58" s="112">
+        <v>0.8038098560161231</v>
+      </c>
+      <c r="M58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>0.72572078907435511</v>
+        <v>0.7257207890743551</v>
       </c>
       <c r="O58" s="107"/>
       <c r="P58" s="107"/>
@@ -24760,43 +24778,43 @@
         <v>65</v>
       </c>
       <c r="C59" s="113"/>
-      <c r="D59" s="112">
+      <c r="D59" s="112" t="n">
         <f>D28/D36</f>
-        <v>4.5194936708860762</v>
-      </c>
-      <c r="E59" s="112">
+        <v>4.519493670886076</v>
+      </c>
+      <c r="E59" s="112" t="n">
         <f t="shared" ref="E59:M59" si="108">E28/E36</f>
         <v>3.8154344306529953</v>
       </c>
-      <c r="F59" s="112">
+      <c r="F59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>3.3624768341872886</v>
       </c>
-      <c r="G59" s="112">
+      <c r="G59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>3.2937892533147242</v>
-      </c>
-      <c r="H59" s="112">
+        <v>3.293789253314724</v>
+      </c>
+      <c r="H59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.7437605159842962</v>
       </c>
-      <c r="I59" s="112">
+      <c r="I59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>2.2788575961919872</v>
       </c>
-      <c r="J59" s="112">
+      <c r="J59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>2.5928942398489139</v>
-      </c>
-      <c r="K59" s="112">
+        <v>2.592894239848914</v>
+      </c>
+      <c r="K59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>2.1253135249855295</v>
       </c>
-      <c r="L59" s="112">
+      <c r="L59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>2.6499001057703606</v>
       </c>
-      <c r="M59" s="112">
+      <c r="M59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.8604970146845248</v>
       </c>
@@ -24825,45 +24843,45 @@
     </row>
     <row r="60" spans="2:36">
       <c r="B60" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="112">
+        <v>160</v>
+      </c>
+      <c r="D60" s="112" t="n">
         <f>D46/D9</f>
         <v>1.715568862275449</v>
       </c>
-      <c r="E60" s="112">
+      <c r="E60" s="112" t="n">
         <f t="shared" ref="E60:M60" si="109">E46/E9</f>
         <v>2.2083065724684223</v>
       </c>
-      <c r="F60" s="112">
+      <c r="F60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>6.5563325563325563</v>
-      </c>
-      <c r="G60" s="112">
+        <v>6.556332556332556</v>
+      </c>
+      <c r="G60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>3.6673568818514006</v>
       </c>
-      <c r="H60" s="112">
+      <c r="H60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>3.1230120481927712</v>
       </c>
-      <c r="I60" s="112">
+      <c r="I60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>2.5526712623869021</v>
-      </c>
-      <c r="J60" s="112">
+        <v>2.552671262386902</v>
+      </c>
+      <c r="J60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>2.7429147529965272</v>
-      </c>
-      <c r="K60" s="112">
+        <v>2.742914752996527</v>
+      </c>
+      <c r="K60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.9542527502012343</v>
       </c>
-      <c r="L60" s="112">
+      <c r="L60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>3.670748677984971</v>
       </c>
-      <c r="M60" s="112">
+      <c r="M60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.4080378250591017</v>
       </c>
@@ -24948,7 +24966,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="113"/>
-      <c r="D63" s="121">
+      <c r="D63" s="121" t="n">
         <f>(M20/I20)^0.2 - 1</f>
         <v>0.10577176856171855</v>
       </c>
@@ -24980,9 +24998,9 @@
         <v>83</v>
       </c>
       <c r="C64" s="113"/>
-      <c r="D64" s="121">
+      <c r="D64" s="121" t="n">
         <f>(M20/D20)^0.1 - 1</f>
-        <v>2.9151582846499879E-2</v>
+        <v>0.02915158284649988</v>
       </c>
     </row>
     <row r="65" spans="2:13">
@@ -24990,7 +25008,7 @@
         <v>74</v>
       </c>
       <c r="C65" s="114"/>
-      <c r="D65" s="121">
+      <c r="D65" s="121" t="n">
         <f>(M6/I6)^0.2 - 1</f>
         <v>0.10175372913869052</v>
       </c>
@@ -25000,9 +25018,9 @@
         <v>84</v>
       </c>
       <c r="C66" s="114"/>
-      <c r="D66" s="121">
+      <c r="D66" s="121" t="n">
         <f>(M6/D6)^0.1 - 1</f>
-        <v>3.8099666855591297E-2</v>
+        <v>0.038099666855591297</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -25010,9 +25028,9 @@
         <v>75</v>
       </c>
       <c r="C67" s="114"/>
-      <c r="D67" s="121">
+      <c r="D67" s="121" t="n">
         <f>(M3/I3)^0.2 - 1</f>
-        <v>1.1312600235921622E-2</v>
+        <v>0.011312600235921622</v>
       </c>
     </row>
     <row r="68" spans="2:13">
@@ -25020,9 +25038,9 @@
         <v>85</v>
       </c>
       <c r="C68" s="114"/>
-      <c r="D68" s="121">
+      <c r="D68" s="121" t="n">
         <f>(M3/D3)^0.1 - 1</f>
-        <v>6.684690881331834E-2</v>
+        <v>0.06684690881331834</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -25030,9 +25048,9 @@
         <v>88</v>
       </c>
       <c r="C69" s="114"/>
-      <c r="D69" s="121">
+      <c r="D69" s="121" t="n">
         <f>(M9/I9)^0.2 - 1</f>
-        <v>-1.8416959323199533E-2</v>
+        <v>-0.018416959323199533</v>
       </c>
     </row>
     <row r="70" spans="2:13">
@@ -25040,36 +25058,36 @@
         <v>89</v>
       </c>
       <c r="C70" s="114"/>
-      <c r="D70" s="121">
+      <c r="D70" s="121" t="n">
         <f>(M9/D9)^0.2 - 1</f>
-        <v>8.3016304790204831E-2</v>
+        <v>0.08301630479020483</v>
       </c>
     </row>
     <row r="71" spans="2:13">
       <c r="B71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="121">
+      <c r="D71" s="121" t="n">
         <f>(M23/I23)^0.2 - 1</f>
-        <v>6.2872351089566125E-2</v>
+        <v>0.06287235108956613</v>
       </c>
     </row>
     <row r="72" spans="2:13">
       <c r="B72" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="121">
+      <c r="D72" s="121" t="n">
         <f>AVERAGE(I24:M24)</f>
-        <v>7.329604533780773E-2</v>
+        <v>0.07329604533780773</v>
       </c>
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="121">
+      <c r="D73" s="121" t="n">
         <f>AVERAGE(I55:M55)</f>
-        <v>0.56670014372804034</v>
+        <v>0.5667001437280403</v>
       </c>
     </row>
     <row r="75" spans="2:13" ht="17.5" thickBot="1">
@@ -25115,45 +25133,45 @@
       <c r="C76" s="110">
         <v>0</v>
       </c>
-      <c r="D76" s="110">
+      <c r="D76" s="110" t="n">
         <f t="shared" ref="D76:M76" si="110">100*D6/D34</f>
-        <v>9.9340974212034379</v>
-      </c>
-      <c r="E76" s="110">
+        <v>9.934097421203438</v>
+      </c>
+      <c r="E76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>8.0779063331839858</v>
-      </c>
-      <c r="F76" s="110">
+        <v>8.077906333183986</v>
+      </c>
+      <c r="F76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>2.5073815437971598</v>
-      </c>
-      <c r="G76" s="110">
+        <v>2.50738154379716</v>
+      </c>
+      <c r="G76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>3.5506402793946448</v>
       </c>
-      <c r="H76" s="110">
+      <c r="H76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>4.033768288652773</v>
       </c>
-      <c r="I76" s="110">
+      <c r="I76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>3.3963213812874073</v>
       </c>
-      <c r="J76" s="110">
+      <c r="J76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>5.1631101299975475</v>
       </c>
-      <c r="K76" s="110">
+      <c r="K76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>5.280684537264718</v>
       </c>
-      <c r="L76" s="110">
+      <c r="L76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>3.8740035667475987</v>
       </c>
-      <c r="M76" s="110">
+      <c r="M76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>5.5385799076720161</v>
+        <v>5.538579907672016</v>
       </c>
     </row>
     <row r="77" spans="2:13">
@@ -25163,82 +25181,82 @@
       <c r="C77" s="110">
         <v>0</v>
       </c>
-      <c r="D77" s="110">
+      <c r="D77" s="110" t="n">
         <f t="shared" ref="D77:M77" si="111">100*D6/D44</f>
         <v>18.568903647367577</v>
       </c>
-      <c r="E77" s="110">
+      <c r="E77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>15.764028184950883</v>
       </c>
-      <c r="F77" s="110">
+      <c r="F77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>5.0253616381739619</v>
-      </c>
-      <c r="G77" s="110">
+        <v>5.025361638173962</v>
+      </c>
+      <c r="G77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>6.7956130073180567</v>
-      </c>
-      <c r="H77" s="110">
+        <v>6.795613007318057</v>
+      </c>
+      <c r="H77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>8.0031790184780451</v>
-      </c>
-      <c r="I77" s="110">
+        <v>8.003179018478045</v>
+      </c>
+      <c r="I77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>6.1075912006611306</v>
-      </c>
-      <c r="J77" s="110">
+        <v>6.107591200661131</v>
+      </c>
+      <c r="J77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>9.2228949255158135</v>
-      </c>
-      <c r="K77" s="110">
+        <v>9.222894925515813</v>
+      </c>
+      <c r="K77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>9.4138229281333548</v>
-      </c>
-      <c r="L77" s="110">
+        <v>9.413822928133355</v>
+      </c>
+      <c r="L77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>6.9879658159409335</v>
       </c>
-      <c r="M77" s="110">
+      <c r="M77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>9.5580424886191206</v>
+        <v>9.55804248861912</v>
       </c>
     </row>
     <row r="78" spans="2:13">
       <c r="B78" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="110">
-        <v>0</v>
-      </c>
-      <c r="D78" s="40">
+      <c r="C78" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="40" t="n">
         <v>12.619999885559082</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="40" t="n">
         <v>10.390000343322754</v>
       </c>
-      <c r="F78" s="40">
-        <v>4.7899999618530273</v>
-      </c>
-      <c r="G78" s="40">
-        <v>5</v>
-      </c>
-      <c r="H78" s="40">
-        <v>5.5799999237060547</v>
-      </c>
-      <c r="I78" s="40">
-        <v>4.6700000762939453</v>
-      </c>
-      <c r="J78" s="40">
-        <v>7.8000001907348633</v>
-      </c>
-      <c r="K78" s="40">
-        <v>7.4000000953674316</v>
-      </c>
-      <c r="L78" s="40">
-        <v>5.8299999237060547</v>
-      </c>
-      <c r="M78" s="40">
+      <c r="F78" s="40" t="n">
+        <v>4.789999961853027</v>
+      </c>
+      <c r="G78" s="40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H78" s="40" t="n">
+        <v>5.579999923706055</v>
+      </c>
+      <c r="I78" s="40" t="n">
+        <v>4.670000076293945</v>
+      </c>
+      <c r="J78" s="40" t="n">
+        <v>7.800000190734863</v>
+      </c>
+      <c r="K78" s="40" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="L78" s="40" t="n">
+        <v>5.829999923706055</v>
+      </c>
+      <c r="M78" s="40" t="n">
         <v>7.179999828338623</v>
       </c>
     </row>
@@ -25282,37 +25300,37 @@
       <c r="B81" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="110">
-        <v>0</v>
-      </c>
-      <c r="D81" s="40">
-        <v>15.340000152587891</v>
-      </c>
-      <c r="E81" s="40">
+      <c r="C81" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" s="40" t="n">
+        <v>15.34000015258789</v>
+      </c>
+      <c r="E81" s="40" t="n">
         <v>24.979999542236328</v>
       </c>
-      <c r="F81" s="40">
+      <c r="F81" s="40" t="n">
         <v>46.619998931884766</v>
       </c>
-      <c r="G81" s="40">
+      <c r="G81" s="40" t="n">
         <v>23.739999771118164</v>
       </c>
-      <c r="H81" s="40">
-        <v>22.180000305175781</v>
-      </c>
-      <c r="I81" s="40">
+      <c r="H81" s="40" t="n">
+        <v>22.18000030517578</v>
+      </c>
+      <c r="I81" s="40" t="n">
         <v>54.470001220703125</v>
       </c>
-      <c r="J81" s="40">
+      <c r="J81" s="40" t="n">
         <v>32.880001068115234</v>
       </c>
-      <c r="K81" s="40">
+      <c r="K81" s="40" t="n">
         <v>44.880001068115234</v>
       </c>
-      <c r="L81" s="40">
+      <c r="L81" s="40" t="n">
         <v>29.809999465942383</v>
       </c>
-      <c r="M81" s="40">
+      <c r="M81" s="40" t="n">
         <v>24.139999389648438</v>
       </c>
     </row>
@@ -25320,37 +25338,37 @@
       <c r="B82" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="110">
-        <v>0</v>
-      </c>
-      <c r="D82" s="40">
+      <c r="C82" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" s="40" t="n">
         <v>12.510000228881836</v>
       </c>
-      <c r="E82" s="40">
+      <c r="E82" s="40" t="n">
         <v>17.440000534057617</v>
       </c>
-      <c r="F82" s="40">
-        <v>17.659999847412109</v>
-      </c>
-      <c r="G82" s="40">
-        <v>16.340000152587891</v>
-      </c>
-      <c r="H82" s="40">
+      <c r="F82" s="40" t="n">
+        <v>17.65999984741211</v>
+      </c>
+      <c r="G82" s="40" t="n">
+        <v>16.34000015258789</v>
+      </c>
+      <c r="H82" s="40" t="n">
         <v>20.209999084472656</v>
       </c>
-      <c r="I82" s="40">
+      <c r="I82" s="40" t="n">
         <v>21.020000457763672</v>
       </c>
-      <c r="J82" s="40">
+      <c r="J82" s="40" t="n">
         <v>20.399999618530273</v>
       </c>
-      <c r="K82" s="40">
+      <c r="K82" s="40" t="n">
         <v>26.389999389648438</v>
       </c>
-      <c r="L82" s="40">
-        <v>19.590000152587891</v>
-      </c>
-      <c r="M82" s="40">
+      <c r="L82" s="40" t="n">
+        <v>19.59000015258789</v>
+      </c>
+      <c r="M82" s="40" t="n">
         <v>16.559999465942383</v>
       </c>
     </row>
@@ -25358,7 +25376,7 @@
       <c r="B83" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="110">
+      <c r="C83" s="110" t="n">
         <v>2.2200000286102295</v>
       </c>
     </row>

--- a/target/classes/companies/pharma/Medtronic/MDT_Medtronic.xlsx
+++ b/target/classes/companies/pharma/Medtronic/MDT_Medtronic.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -18693,7 +18693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -20123,8 +20123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20201,7 +20201,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="67" t="n">
-        <v>0.004999999888241291</v>
+        <v>0.03999999910593033</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -21054,45 +21054,42 @@
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21" t="n">
-        <f>L25*(1+C46)</f>
-        <v>8502.29999905451</v>
-      </c>
-      <c r="D45" s="21" t="n">
-        <f>C45*(1+D46)</f>
-        <v>8544.811498099565</v>
-      </c>
-      <c r="E45" s="21" t="n">
-        <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>8587.5355546351</v>
+      <c r="C45" s="60" t="n">
+        <v>8613.0</v>
+      </c>
+      <c r="D45" s="60" t="n">
+        <v>8512.0</v>
+      </c>
+      <c r="E45" s="60" t="n">
+        <v>9198.0</v>
       </c>
       <c r="F45" s="21" t="n">
-        <f t="shared" si="8"/>
-        <v>8630.473231448532</v>
+        <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
+        <v>9565.919991776344</v>
       </c>
       <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>8673.625596641232</v>
+        <v>9948.556782894791</v>
       </c>
       <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>8716.993723655072</v>
+        <v>10346.499045315875</v>
       </c>
       <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>8760.578691299133</v>
+        <v>10760.358997878042</v>
       </c>
       <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>8804.381583776543</v>
+        <v>11190.773348172606</v>
       </c>
       <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>8848.403490711446</v>
+        <v>11638.404272094169</v>
       </c>
       <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>8892.64550717611</v>
+        <v>12103.940432572419</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -21101,43 +21098,43 @@
       </c>
       <c r="C46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.03999999910593033</v>
       </c>
       <c r="D46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.03999999910593033</v>
       </c>
       <c r="E46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.03999999910593033</v>
       </c>
       <c r="F46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.03999999910593033</v>
       </c>
       <c r="G46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.03999999910593033</v>
       </c>
       <c r="H46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.03999999910593033</v>
       </c>
       <c r="I46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.03999999910593033</v>
       </c>
       <c r="J46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.03999999910593033</v>
       </c>
       <c r="K46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.03999999910593033</v>
       </c>
       <c r="L46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.03999999910593033</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20" thickBot="1">
@@ -21434,7 +21431,7 @@
       </c>
       <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>128231.94889193411</v>
+        <v>174538.82196115082</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
@@ -21443,7 +21440,7 @@
       </c>
       <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>58130.37996694141</v>
+        <v>79122.31021408305</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21456,7 +21453,7 @@
       </c>
       <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>104306.79612109694</v>
+        <v>125298.72636823857</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21466,7 +21463,7 @@
       </c>
       <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>78.50234825873433</v>
+        <v>94.30108698109927</v>
       </c>
     </row>
   </sheetData>
@@ -21562,7 +21559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
